--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_10_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_10_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1628860.752812847</v>
+        <v>1573908.863528751</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>408938.3872013178</v>
+        <v>408938.3872013174</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11497228.11079586</v>
+        <v>11497228.11079585</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7703976.932634618</v>
+        <v>7703976.932634619</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>130.7186667766805</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>287.1956624576732</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>102.5770215188336</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>56.90860309967439</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S12" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W12" t="n">
         <v>266.7045835770116</v>
@@ -1517,7 +1517,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y12" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>4.376832222376923</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.58429473553585</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.1432960270615</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>80.39631948615272</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>27.056774997672</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>167.1352887070715</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="15">
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1700,10 +1700,10 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>211.8662302997449</v>
@@ -1745,16 +1745,16 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V15" t="n">
-        <v>240.6489209154022</v>
+        <v>112.4286442769884</v>
       </c>
       <c r="W15" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X15" t="n">
-        <v>137.2293341323368</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="16">
@@ -1809,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>76.5351950996145</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.0023972007068</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>3.391899072553051</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>160.9639132334705</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>240.4660086744112</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.329915919761465</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>86.89603752886883</v>
+        <v>17.72608856835755</v>
       </c>
       <c r="S18" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T18" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>237.1773944157285</v>
@@ -1991,7 +1991,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.35340349906471</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>152.3549420496106</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>258.8632957746844</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>56.7124048225627</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S20" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2159,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>90.22595344863024</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2216,16 +2216,16 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>103.5346007652492</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>158.6107100818747</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2301,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>7.226885210985831</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H23" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>216.1639724458418</v>
@@ -2377,13 +2377,13 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>60.57545545242566</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>39.91019239383036</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2399,13 +2399,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>3.329915919761465</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>14.38882121508887</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>237.1773944157285</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>73.35340349906456</v>
+        <v>137.4545982671966</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2566,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>185.5090622027477</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
-        <v>145.2490382381322</v>
+        <v>67.56695549570567</v>
       </c>
       <c r="X26" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3.329915919761465</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>177.283526739121</v>
@@ -2690,7 +2690,7 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1773944157285</v>
+        <v>37.27935335309631</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>290.3107070893353</v>
+        <v>131.080411328349</v>
       </c>
       <c r="X28" t="n">
-        <v>7.226885210985831</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>3.744697544599016</v>
       </c>
       <c r="F29" t="n">
-        <v>274.7623247187212</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="30">
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>18.92339685127551</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
@@ -2885,13 +2885,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1773944157285</v>
+        <v>226.7297788669186</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -2936,7 +2936,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
         <v>223.3842861340256</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V31" t="n">
-        <v>7.226885210985944</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>290.3107070893353</v>
+        <v>8.916258666857177</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>199.1022424039351</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0353723969745</v>
+        <v>113.5608911350687</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
         <v>337.8964638257669</v>
@@ -3107,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>158.655636585039</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>139.8851963399936</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>73.35340349906471</v>
+        <v>7.226885210986</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,19 +3268,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>187.748681617384</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>231.1494008325672</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>28.21102703659584</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3392,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>86.89603752886883</v>
+        <v>86.89603752886882</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1773944157285</v>
+        <v>52.98915881112526</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.1432960270615</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>224.3942962732598</v>
+        <v>52.4285771158714</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>122.3215916195977</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>350.2054973811788</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>191.0170317037261</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="39">
@@ -3581,28 +3581,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>14.86354856717379</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>33.8649542696675</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>131.0804113283489</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>80.39631948615289</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>201.947991244079</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>16.39840625901616</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="42">
@@ -3818,19 +3818,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>45.78920635768346</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3866,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>86.89603752886883</v>
+        <v>86.89603752886882</v>
       </c>
       <c r="S42" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>88.10489471320312</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>168.0550137836253</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>129.482578516696</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>73.35340349906477</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>293.4130113988112</v>
       </c>
       <c r="D44" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H44" t="n">
-        <v>134.7549293585493</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>137.1271443048236</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
@@ -4070,13 +4070,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I45" t="n">
-        <v>80.84345120350704</v>
+        <v>41.94633269058587</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>211.8662302997449</v>
@@ -4115,16 +4115,16 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>76.53519509961455</v>
       </c>
       <c r="T46" t="n">
-        <v>8.916258666857129</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1610.227176505315</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="C11" t="n">
-        <v>1610.227176505315</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="D11" t="n">
-        <v>1269.043176866702</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="E11" t="n">
-        <v>1269.043176866702</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="F11" t="n">
-        <v>978.9465481215775</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G11" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H11" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I11" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J11" t="n">
-        <v>79.26440887602993</v>
+        <v>79.2644088760303</v>
       </c>
       <c r="K11" t="n">
-        <v>253.8975067193751</v>
+        <v>253.897506719376</v>
       </c>
       <c r="L11" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389729</v>
       </c>
       <c r="M11" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292791</v>
       </c>
       <c r="N11" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157784</v>
       </c>
       <c r="O11" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P11" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q11" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R11" t="n">
-        <v>1610.227176505315</v>
+        <v>1610.227176505316</v>
       </c>
       <c r="S11" t="n">
-        <v>1610.227176505315</v>
+        <v>1413.54859321015</v>
       </c>
       <c r="T11" t="n">
-        <v>1610.227176505315</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="U11" t="n">
-        <v>1610.227176505315</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="V11" t="n">
-        <v>1610.227176505315</v>
+        <v>871.0801527505599</v>
       </c>
       <c r="W11" t="n">
-        <v>1610.227176505315</v>
+        <v>529.7705933305933</v>
       </c>
       <c r="X11" t="n">
-        <v>1610.227176505315</v>
+        <v>166.3537102046275</v>
       </c>
       <c r="Y11" t="n">
-        <v>1610.227176505315</v>
+        <v>166.3537102046275</v>
       </c>
     </row>
     <row r="12">
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>718.4979635217912</v>
+        <v>681.9662924591295</v>
       </c>
       <c r="C12" t="n">
-        <v>529.0856892547549</v>
+        <v>681.9662924591295</v>
       </c>
       <c r="D12" t="n">
-        <v>368.3055730157866</v>
+        <v>521.1861762201612</v>
       </c>
       <c r="E12" t="n">
-        <v>194.7423691372011</v>
+        <v>521.1861762201612</v>
       </c>
       <c r="F12" t="n">
-        <v>34.31465285444516</v>
+        <v>360.7584599374053</v>
       </c>
       <c r="G12" t="n">
-        <v>34.31465285444516</v>
+        <v>211.2894263606452</v>
       </c>
       <c r="H12" t="n">
-        <v>34.31465285444516</v>
+        <v>91.79809032886376</v>
       </c>
       <c r="I12" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J12" t="n">
-        <v>34.31465285444516</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="K12" t="n">
-        <v>34.31465285444516</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L12" t="n">
-        <v>304.6946924676437</v>
+        <v>304.6946924676444</v>
       </c>
       <c r="M12" t="n">
-        <v>679.5863020207053</v>
+        <v>679.5863020207059</v>
       </c>
       <c r="N12" t="n">
-        <v>1082.820066520716</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O12" t="n">
         <v>1395.953100567611</v>
@@ -5141,31 +5141,31 @@
         <v>1625.193464940061</v>
       </c>
       <c r="Q12" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R12" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S12" t="n">
-        <v>1536.658373288803</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="T12" t="n">
-        <v>1536.658373288803</v>
+        <v>1413.952574208508</v>
       </c>
       <c r="U12" t="n">
-        <v>1536.658373288803</v>
+        <v>1413.952574208508</v>
       </c>
       <c r="V12" t="n">
-        <v>1536.658373288803</v>
+        <v>1170.872856112142</v>
       </c>
       <c r="W12" t="n">
-        <v>1267.259804019094</v>
+        <v>901.4742868424331</v>
       </c>
       <c r="X12" t="n">
-        <v>1047.751809635791</v>
+        <v>681.9662924591295</v>
       </c>
       <c r="Y12" t="n">
-        <v>822.1111165711181</v>
+        <v>681.9662924591295</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>260.9755581809702</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="C13" t="n">
-        <v>260.9755581809702</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="D13" t="n">
-        <v>260.9755581809702</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="E13" t="n">
-        <v>260.9755581809702</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="F13" t="n">
-        <v>260.9755581809702</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G13" t="n">
-        <v>260.9755581809702</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H13" t="n">
-        <v>256.5545155321046</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I13" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J13" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K13" t="n">
         <v>42.23041924514574</v>
@@ -5211,40 +5211,40 @@
         <v>180.6961586662945</v>
       </c>
       <c r="N13" t="n">
-        <v>262.1720788316464</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O13" t="n">
-        <v>315.4306320098957</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P13" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q13" t="n">
-        <v>260.9755581809702</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R13" t="n">
-        <v>260.9755581809702</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S13" t="n">
-        <v>260.9755581809702</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T13" t="n">
-        <v>260.9755581809702</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U13" t="n">
-        <v>260.9755581809702</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V13" t="n">
-        <v>260.9755581809702</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="W13" t="n">
-        <v>260.9755581809702</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="X13" t="n">
-        <v>260.9755581809702</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="Y13" t="n">
-        <v>260.9755581809702</v>
+        <v>34.31465285444518</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1386.218517454924</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="C14" t="n">
-        <v>1386.218517454924</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.218517454924</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="E14" t="n">
-        <v>1386.218517454924</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="F14" t="n">
-        <v>978.9465481215775</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G14" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H14" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I14" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J14" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602996</v>
       </c>
       <c r="K14" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193752</v>
       </c>
       <c r="L14" t="n">
         <v>525.528369138972</v>
       </c>
       <c r="M14" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N14" t="n">
         <v>1186.279026157782</v>
@@ -5296,34 +5296,34 @@
         <v>1460.632785841149</v>
       </c>
       <c r="P14" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q14" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R14" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S14" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T14" t="n">
-        <v>1386.218517454924</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U14" t="n">
-        <v>1386.218517454924</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V14" t="n">
-        <v>1386.218517454924</v>
+        <v>1546.909118775721</v>
       </c>
       <c r="W14" t="n">
-        <v>1386.218517454924</v>
+        <v>1205.599559355755</v>
       </c>
       <c r="X14" t="n">
-        <v>1386.218517454924</v>
+        <v>1205.599559355755</v>
       </c>
       <c r="Y14" t="n">
-        <v>1386.218517454924</v>
+        <v>819.452521559341</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>344.2114027139611</v>
+        <v>475.0138214079508</v>
       </c>
       <c r="C15" t="n">
-        <v>344.2114027139611</v>
+        <v>475.0138214079508</v>
       </c>
       <c r="D15" t="n">
-        <v>344.2114027139611</v>
+        <v>314.2337051689825</v>
       </c>
       <c r="E15" t="n">
-        <v>344.2114027139611</v>
+        <v>314.2337051689825</v>
       </c>
       <c r="F15" t="n">
-        <v>183.7836864312052</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="G15" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H15" t="n">
         <v>34.31465285444516</v>
@@ -5363,46 +5363,46 @@
         <v>34.31465285444516</v>
       </c>
       <c r="L15" t="n">
-        <v>317.2197849098234</v>
+        <v>304.6946924676437</v>
       </c>
       <c r="M15" t="n">
-        <v>679.5863020207048</v>
+        <v>679.5863020207053</v>
       </c>
       <c r="N15" t="n">
         <v>1082.820066520716</v>
       </c>
       <c r="O15" t="n">
-        <v>1395.95310056761</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P15" t="n">
-        <v>1625.19346494006</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q15" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R15" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S15" t="n">
-        <v>1448.884598007117</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T15" t="n">
-        <v>1234.878304775051</v>
+        <v>1501.726349490193</v>
       </c>
       <c r="U15" t="n">
-        <v>995.3051791025982</v>
+        <v>1262.15322381774</v>
       </c>
       <c r="V15" t="n">
-        <v>752.2254610062323</v>
+        <v>1148.588936669267</v>
       </c>
       <c r="W15" t="n">
-        <v>482.8268917365236</v>
+        <v>879.1903673995582</v>
       </c>
       <c r="X15" t="n">
-        <v>344.2114027139611</v>
+        <v>879.1903673995582</v>
       </c>
       <c r="Y15" t="n">
-        <v>344.2114027139611</v>
+        <v>653.5496743348858</v>
       </c>
     </row>
     <row r="16">
@@ -5439,7 +5439,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K16" t="n">
-        <v>42.23041924514573</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L16" t="n">
         <v>105.4471208306433</v>
@@ -5451,22 +5451,22 @@
         <v>262.1720788316464</v>
       </c>
       <c r="O16" t="n">
-        <v>315.4306320098957</v>
+        <v>315.4306320098958</v>
       </c>
       <c r="P16" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="Q16" t="n">
-        <v>334.8576753800222</v>
+        <v>260.9755581809703</v>
       </c>
       <c r="R16" t="n">
-        <v>334.8576753800222</v>
+        <v>260.9755581809703</v>
       </c>
       <c r="S16" t="n">
-        <v>257.5493975016237</v>
+        <v>260.9755581809703</v>
       </c>
       <c r="T16" t="n">
-        <v>34.31465285444516</v>
+        <v>37.74081353379168</v>
       </c>
       <c r="U16" t="n">
         <v>34.31465285444516</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.31465285444516</v>
+        <v>618.5191705313937</v>
       </c>
       <c r="C17" t="n">
-        <v>34.31465285444516</v>
+        <v>618.5191705313937</v>
       </c>
       <c r="D17" t="n">
-        <v>34.31465285444516</v>
+        <v>618.5191705313937</v>
       </c>
       <c r="E17" t="n">
-        <v>34.31465285444516</v>
+        <v>618.5191705313937</v>
       </c>
       <c r="F17" t="n">
-        <v>34.31465285444516</v>
+        <v>618.5191705313937</v>
       </c>
       <c r="G17" t="n">
-        <v>34.31465285444516</v>
+        <v>196.9044642013851</v>
       </c>
       <c r="H17" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I17" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J17" t="n">
         <v>79.26440887602985</v>
       </c>
       <c r="K17" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L17" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389722</v>
       </c>
       <c r="M17" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292781</v>
       </c>
       <c r="N17" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O17" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P17" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q17" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R17" t="n">
-        <v>1610.227176505315</v>
+        <v>1610.227176505316</v>
       </c>
       <c r="S17" t="n">
-        <v>1413.548593210149</v>
+        <v>1413.54859321015</v>
       </c>
       <c r="T17" t="n">
-        <v>1195.201146295157</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="U17" t="n">
-        <v>942.6401640759908</v>
+        <v>942.6401640759917</v>
       </c>
       <c r="V17" t="n">
-        <v>618.5191705313928</v>
+        <v>618.5191705313937</v>
       </c>
       <c r="W17" t="n">
-        <v>277.2096111114262</v>
+        <v>618.5191705313937</v>
       </c>
       <c r="X17" t="n">
-        <v>34.31465285444516</v>
+        <v>618.5191705313937</v>
       </c>
       <c r="Y17" t="n">
-        <v>34.31465285444516</v>
+        <v>618.5191705313937</v>
       </c>
     </row>
     <row r="18">
@@ -5570,34 +5570,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>34.31465285444516</v>
+        <v>368.657972971999</v>
       </c>
       <c r="C18" t="n">
-        <v>34.31465285444516</v>
+        <v>368.657972971999</v>
       </c>
       <c r="D18" t="n">
-        <v>34.31465285444516</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="E18" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="F18" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G18" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H18" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I18" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J18" t="n">
-        <v>54.4093011102587</v>
+        <v>54.40930111025872</v>
       </c>
       <c r="K18" t="n">
-        <v>215.5091216889814</v>
+        <v>215.5091216889815</v>
       </c>
       <c r="L18" t="n">
         <v>498.4142537443597</v>
@@ -5606,40 +5606,40 @@
         <v>873.3058632974213</v>
       </c>
       <c r="N18" t="n">
-        <v>1276.539627797432</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O18" t="n">
-        <v>1589.672661844326</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P18" t="n">
-        <v>1715.732642722258</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q18" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R18" t="n">
-        <v>1627.958867440572</v>
+        <v>1697.827502754221</v>
       </c>
       <c r="S18" t="n">
-        <v>1448.884598007117</v>
+        <v>1518.753233320765</v>
       </c>
       <c r="T18" t="n">
-        <v>1234.878304775051</v>
+        <v>1518.753233320765</v>
       </c>
       <c r="U18" t="n">
-        <v>995.3051791025982</v>
+        <v>1279.180107648312</v>
       </c>
       <c r="V18" t="n">
-        <v>752.2254610062323</v>
+        <v>1036.100389551946</v>
       </c>
       <c r="W18" t="n">
-        <v>482.8268917365236</v>
+        <v>766.7018202822377</v>
       </c>
       <c r="X18" t="n">
-        <v>263.31889735322</v>
+        <v>547.1938258989341</v>
       </c>
       <c r="Y18" t="n">
-        <v>37.67820428854765</v>
+        <v>547.1938258989341</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.31465285444516</v>
+        <v>180.9637945218297</v>
       </c>
       <c r="C19" t="n">
-        <v>34.31465285444516</v>
+        <v>180.9637945218297</v>
       </c>
       <c r="D19" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="E19" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="F19" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G19" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H19" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I19" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J19" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K19" t="n">
-        <v>42.23041924514573</v>
+        <v>42.23041924514575</v>
       </c>
       <c r="L19" t="n">
         <v>105.4471208306433</v>
@@ -5688,37 +5688,37 @@
         <v>262.1720788316464</v>
       </c>
       <c r="O19" t="n">
-        <v>315.4306320098957</v>
+        <v>315.4306320098958</v>
       </c>
       <c r="P19" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="Q19" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="R19" t="n">
-        <v>260.76332841127</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="S19" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="T19" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="U19" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="V19" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="W19" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="X19" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.31465285444516</v>
+        <v>180.9637945218297</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>649.5356560421859</v>
+        <v>1224.080138708902</v>
       </c>
       <c r="C20" t="n">
-        <v>295.7927293945305</v>
+        <v>1224.080138708902</v>
       </c>
       <c r="D20" t="n">
-        <v>34.31465285444516</v>
+        <v>1224.080138708902</v>
       </c>
       <c r="E20" t="n">
-        <v>34.31465285444516</v>
+        <v>848.8489144042188</v>
       </c>
       <c r="F20" t="n">
-        <v>34.31465285444516</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="G20" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H20" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I20" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J20" t="n">
-        <v>79.26440887602973</v>
+        <v>79.26440887603013</v>
       </c>
       <c r="K20" t="n">
-        <v>253.8975067193749</v>
+        <v>253.8975067193754</v>
       </c>
       <c r="L20" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389724</v>
       </c>
       <c r="M20" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292784</v>
       </c>
       <c r="N20" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O20" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P20" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q20" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R20" t="n">
-        <v>1610.227176505315</v>
+        <v>1610.227176505316</v>
       </c>
       <c r="S20" t="n">
-        <v>1413.548593210149</v>
+        <v>1610.227176505316</v>
       </c>
       <c r="T20" t="n">
-        <v>1413.548593210149</v>
+        <v>1610.227176505316</v>
       </c>
       <c r="U20" t="n">
-        <v>1413.548593210149</v>
+        <v>1610.227176505316</v>
       </c>
       <c r="V20" t="n">
-        <v>1413.548593210149</v>
+        <v>1610.227176505316</v>
       </c>
       <c r="W20" t="n">
-        <v>1413.548593210149</v>
+        <v>1610.227176505316</v>
       </c>
       <c r="X20" t="n">
-        <v>1413.548593210149</v>
+        <v>1610.227176505316</v>
       </c>
       <c r="Y20" t="n">
-        <v>1027.401555413735</v>
+        <v>1224.080138708902</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>34.31465285444516</v>
+        <v>813.8951292517472</v>
       </c>
       <c r="C21" t="n">
-        <v>34.31465285444516</v>
+        <v>624.4828549847109</v>
       </c>
       <c r="D21" t="n">
-        <v>34.31465285444516</v>
+        <v>463.7027387457426</v>
       </c>
       <c r="E21" t="n">
-        <v>34.31465285444516</v>
+        <v>463.7027387457426</v>
       </c>
       <c r="F21" t="n">
-        <v>34.31465285444516</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="G21" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H21" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I21" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J21" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K21" t="n">
-        <v>54.40930111025867</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L21" t="n">
-        <v>337.3144331656368</v>
+        <v>478.3196054885462</v>
       </c>
       <c r="M21" t="n">
-        <v>712.2060427186984</v>
+        <v>853.2112150416078</v>
       </c>
       <c r="N21" t="n">
-        <v>1115.43980721871</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O21" t="n">
-        <v>1428.572841265604</v>
+        <v>1569.578013588513</v>
       </c>
       <c r="P21" t="n">
-        <v>1657.813205638054</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="Q21" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R21" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="S21" t="n">
-        <v>1536.658373288802</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T21" t="n">
-        <v>1322.652080056737</v>
+        <v>1322.652080056738</v>
       </c>
       <c r="U21" t="n">
-        <v>1083.078954384284</v>
+        <v>1322.652080056738</v>
       </c>
       <c r="V21" t="n">
-        <v>839.9992362879179</v>
+        <v>1218.071675243355</v>
       </c>
       <c r="W21" t="n">
-        <v>570.6006670182093</v>
+        <v>1218.071675243355</v>
       </c>
       <c r="X21" t="n">
-        <v>351.0926726349056</v>
+        <v>1218.071675243355</v>
       </c>
       <c r="Y21" t="n">
-        <v>125.4519795702333</v>
+        <v>992.4309821786824</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1415.189620196681</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="C22" t="n">
-        <v>1415.189620196681</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="D22" t="n">
-        <v>1415.189620196681</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="E22" t="n">
-        <v>1415.189620196681</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="F22" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G22" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H22" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I22" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J22" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K22" t="n">
-        <v>1423.105386587381</v>
+        <v>42.23041924514575</v>
       </c>
       <c r="L22" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M22" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N22" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O22" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098958</v>
       </c>
       <c r="P22" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="Q22" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="R22" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="S22" t="n">
-        <v>1715.732642722258</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="T22" t="n">
-        <v>1715.732642722258</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="U22" t="n">
-        <v>1715.732642722258</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="V22" t="n">
-        <v>1715.732642722258</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="W22" t="n">
-        <v>1422.489504248182</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="X22" t="n">
-        <v>1415.189620196681</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="Y22" t="n">
-        <v>1415.189620196681</v>
+        <v>174.6448369134822</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>557.3318417915689</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="C23" t="n">
-        <v>557.3318417915689</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="D23" t="n">
-        <v>557.3318417915689</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="E23" t="n">
-        <v>557.3318417915689</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F23" t="n">
-        <v>557.3318417915689</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G23" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H23" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I23" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J23" t="n">
         <v>79.26440887602985</v>
       </c>
       <c r="K23" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L23" t="n">
-        <v>525.5283691389719</v>
+        <v>525.5283691389722</v>
       </c>
       <c r="M23" t="n">
-        <v>856.6460009292779</v>
+        <v>856.6460009292781</v>
       </c>
       <c r="N23" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O23" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P23" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q23" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R23" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="S23" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="T23" t="n">
-        <v>1195.201146295157</v>
+        <v>1497.385195807267</v>
       </c>
       <c r="U23" t="n">
-        <v>942.6401640759908</v>
+        <v>1244.824213588101</v>
       </c>
       <c r="V23" t="n">
-        <v>618.5191705313928</v>
+        <v>1244.824213588101</v>
       </c>
       <c r="W23" t="n">
-        <v>557.3318417915689</v>
+        <v>903.5146541681345</v>
       </c>
       <c r="X23" t="n">
-        <v>557.3318417915689</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="Y23" t="n">
-        <v>557.3318417915689</v>
+        <v>863.2013285178008</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>37.67820428854765</v>
+        <v>518.5325422357553</v>
       </c>
       <c r="C24" t="n">
-        <v>37.67820428854765</v>
+        <v>329.120267968719</v>
       </c>
       <c r="D24" t="n">
-        <v>34.31465285444516</v>
+        <v>168.3401517297507</v>
       </c>
       <c r="E24" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="F24" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="G24" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H24" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I24" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J24" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K24" t="n">
-        <v>215.5091216889814</v>
+        <v>112.3287381944637</v>
       </c>
       <c r="L24" t="n">
-        <v>498.4142537443595</v>
+        <v>395.233870249842</v>
       </c>
       <c r="M24" t="n">
-        <v>679.5863020207054</v>
+        <v>770.1254798029036</v>
       </c>
       <c r="N24" t="n">
-        <v>1082.820066520716</v>
+        <v>1173.359244302915</v>
       </c>
       <c r="O24" t="n">
-        <v>1395.95310056761</v>
+        <v>1486.492278349809</v>
       </c>
       <c r="P24" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="Q24" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R24" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="S24" t="n">
-        <v>1448.884598007117</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="T24" t="n">
-        <v>1234.878304775051</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="U24" t="n">
-        <v>995.3051791025982</v>
+        <v>1476.159517049806</v>
       </c>
       <c r="V24" t="n">
-        <v>752.2254610062323</v>
+        <v>1233.07979895344</v>
       </c>
       <c r="W24" t="n">
-        <v>482.8268917365236</v>
+        <v>963.6812296837312</v>
       </c>
       <c r="X24" t="n">
-        <v>263.31889735322</v>
+        <v>744.1732353004276</v>
       </c>
       <c r="Y24" t="n">
-        <v>37.67820428854765</v>
+        <v>518.5325422357553</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.31465285444516</v>
+        <v>196.0146468272984</v>
       </c>
       <c r="C25" t="n">
-        <v>34.31465285444516</v>
+        <v>196.0146468272984</v>
       </c>
       <c r="D25" t="n">
-        <v>34.31465285444516</v>
+        <v>196.0146468272984</v>
       </c>
       <c r="E25" t="n">
-        <v>34.31465285444516</v>
+        <v>196.0146468272984</v>
       </c>
       <c r="F25" t="n">
-        <v>34.31465285444516</v>
+        <v>196.0146468272984</v>
       </c>
       <c r="G25" t="n">
-        <v>34.31465285444516</v>
+        <v>196.0146468272984</v>
       </c>
       <c r="H25" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I25" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J25" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K25" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514575</v>
       </c>
       <c r="L25" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M25" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N25" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O25" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098958</v>
       </c>
       <c r="P25" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="Q25" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="R25" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="S25" t="n">
-        <v>108.4089998231972</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="T25" t="n">
-        <v>34.31465285444516</v>
+        <v>196.0146468272984</v>
       </c>
       <c r="U25" t="n">
-        <v>34.31465285444516</v>
+        <v>196.0146468272984</v>
       </c>
       <c r="V25" t="n">
-        <v>34.31465285444516</v>
+        <v>196.0146468272984</v>
       </c>
       <c r="W25" t="n">
-        <v>34.31465285444516</v>
+        <v>196.0146468272984</v>
       </c>
       <c r="X25" t="n">
-        <v>34.31465285444516</v>
+        <v>196.0146468272984</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.31465285444516</v>
+        <v>196.0146468272984</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>441.5866221877922</v>
+        <v>643.3122502983404</v>
       </c>
       <c r="C26" t="n">
-        <v>441.5866221877922</v>
+        <v>643.3122502983404</v>
       </c>
       <c r="D26" t="n">
-        <v>441.5866221877922</v>
+        <v>643.3122502983404</v>
       </c>
       <c r="E26" t="n">
-        <v>441.5866221877922</v>
+        <v>643.3122502983404</v>
       </c>
       <c r="F26" t="n">
-        <v>34.31465285444516</v>
+        <v>643.3122502983404</v>
       </c>
       <c r="G26" t="n">
-        <v>34.31465285444516</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="H26" t="n">
-        <v>34.31465285444516</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="I26" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J26" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887602996</v>
       </c>
       <c r="K26" t="n">
-        <v>253.8975067193751</v>
+        <v>253.8975067193752</v>
       </c>
       <c r="L26" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389725</v>
       </c>
       <c r="M26" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292783</v>
       </c>
       <c r="N26" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O26" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P26" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q26" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R26" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505316</v>
       </c>
       <c r="S26" t="n">
-        <v>1715.732642722258</v>
+        <v>1413.54859321015</v>
       </c>
       <c r="T26" t="n">
-        <v>1715.732642722258</v>
+        <v>1413.54859321015</v>
       </c>
       <c r="U26" t="n">
-        <v>1715.732642722258</v>
+        <v>1413.54859321015</v>
       </c>
       <c r="V26" t="n">
-        <v>1715.732642722258</v>
+        <v>1089.427599665551</v>
       </c>
       <c r="W26" t="n">
-        <v>1569.016442481721</v>
+        <v>1021.178149669889</v>
       </c>
       <c r="X26" t="n">
-        <v>1205.599559355755</v>
+        <v>1021.178149669889</v>
       </c>
       <c r="Y26" t="n">
-        <v>819.452521559341</v>
+        <v>1021.178149669889</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>34.31465285444516</v>
+        <v>327.3691927648122</v>
       </c>
       <c r="C27" t="n">
-        <v>34.31465285444516</v>
+        <v>327.3691927648122</v>
       </c>
       <c r="D27" t="n">
-        <v>34.31465285444516</v>
+        <v>327.3691927648122</v>
       </c>
       <c r="E27" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="F27" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="G27" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H27" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I27" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J27" t="n">
-        <v>54.4093011102587</v>
+        <v>54.40930111025872</v>
       </c>
       <c r="K27" t="n">
-        <v>215.5091216889814</v>
+        <v>112.3287381944637</v>
       </c>
       <c r="L27" t="n">
-        <v>498.4142537443597</v>
+        <v>395.233870249842</v>
       </c>
       <c r="M27" t="n">
-        <v>873.3058632974213</v>
+        <v>770.1254798029036</v>
       </c>
       <c r="N27" t="n">
-        <v>1173.359244302914</v>
+        <v>1173.359244302915</v>
       </c>
       <c r="O27" t="n">
-        <v>1486.492278349808</v>
+        <v>1486.492278349809</v>
       </c>
       <c r="P27" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="Q27" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R27" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="S27" t="n">
-        <v>1448.884598007117</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T27" t="n">
-        <v>1234.878304775051</v>
+        <v>1322.652080056738</v>
       </c>
       <c r="U27" t="n">
-        <v>995.3051791025982</v>
+        <v>1284.996167578863</v>
       </c>
       <c r="V27" t="n">
-        <v>752.2254610062323</v>
+        <v>1041.916449482497</v>
       </c>
       <c r="W27" t="n">
-        <v>482.8268917365236</v>
+        <v>772.5178802127882</v>
       </c>
       <c r="X27" t="n">
-        <v>263.31889735322</v>
+        <v>553.0098858294846</v>
       </c>
       <c r="Y27" t="n">
-        <v>37.67820428854765</v>
+        <v>327.3691927648122</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1415.189620196681</v>
+        <v>202.4532194928011</v>
       </c>
       <c r="C28" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="D28" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="E28" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="F28" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G28" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H28" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I28" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J28" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K28" t="n">
-        <v>1423.105386587381</v>
+        <v>42.23041924514575</v>
       </c>
       <c r="L28" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M28" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N28" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O28" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098958</v>
       </c>
       <c r="P28" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="Q28" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="R28" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="S28" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="T28" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="U28" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="V28" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="W28" t="n">
-        <v>1422.489504248182</v>
+        <v>202.4532194928011</v>
       </c>
       <c r="X28" t="n">
-        <v>1415.189620196681</v>
+        <v>202.4532194928011</v>
       </c>
       <c r="Y28" t="n">
-        <v>1415.189620196681</v>
+        <v>202.4532194928011</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1610.227176505315</v>
+        <v>445.3691449601144</v>
       </c>
       <c r="C29" t="n">
-        <v>1256.48424985766</v>
+        <v>445.3691449601144</v>
       </c>
       <c r="D29" t="n">
-        <v>1256.48424985766</v>
+        <v>445.3691449601144</v>
       </c>
       <c r="E29" t="n">
-        <v>1256.48424985766</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="F29" t="n">
-        <v>978.9465481215775</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G29" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H29" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I29" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J29" t="n">
         <v>79.26440887602993</v>
       </c>
       <c r="K29" t="n">
-        <v>253.8975067193751</v>
+        <v>253.8975067193752</v>
       </c>
       <c r="L29" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389722</v>
       </c>
       <c r="M29" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292782</v>
       </c>
       <c r="N29" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O29" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P29" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q29" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R29" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="S29" t="n">
-        <v>1610.227176505315</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="T29" t="n">
-        <v>1610.227176505315</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="U29" t="n">
-        <v>1610.227176505315</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="V29" t="n">
-        <v>1610.227176505315</v>
+        <v>1194.933065882494</v>
       </c>
       <c r="W29" t="n">
-        <v>1610.227176505315</v>
+        <v>1194.933065882494</v>
       </c>
       <c r="X29" t="n">
-        <v>1610.227176505315</v>
+        <v>831.5161827565285</v>
       </c>
       <c r="Y29" t="n">
-        <v>1610.227176505315</v>
+        <v>445.3691449601144</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>738.040536619058</v>
+        <v>529.0856892547549</v>
       </c>
       <c r="C30" t="n">
-        <v>738.040536619058</v>
+        <v>529.0856892547549</v>
       </c>
       <c r="D30" t="n">
-        <v>718.9259943450423</v>
+        <v>368.3055730157866</v>
       </c>
       <c r="E30" t="n">
-        <v>545.3627904664568</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F30" t="n">
-        <v>384.9350741837009</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G30" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I30" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J30" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K30" t="n">
-        <v>195.4144734331679</v>
+        <v>112.3287381944637</v>
       </c>
       <c r="L30" t="n">
-        <v>478.3196054885461</v>
+        <v>395.233870249842</v>
       </c>
       <c r="M30" t="n">
-        <v>853.2112150416077</v>
+        <v>770.1254798029036</v>
       </c>
       <c r="N30" t="n">
-        <v>1256.444979541619</v>
+        <v>1173.359244302915</v>
       </c>
       <c r="O30" t="n">
-        <v>1395.95310056761</v>
+        <v>1486.492278349809</v>
       </c>
       <c r="P30" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="Q30" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R30" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="S30" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="T30" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="U30" t="n">
-        <v>1476.159517049805</v>
+        <v>1486.712664068806</v>
       </c>
       <c r="V30" t="n">
-        <v>1233.079798953439</v>
+        <v>1243.63294597244</v>
       </c>
       <c r="W30" t="n">
-        <v>963.6812296837303</v>
+        <v>974.234376702731</v>
       </c>
       <c r="X30" t="n">
-        <v>963.6812296837303</v>
+        <v>754.7263823194273</v>
       </c>
       <c r="Y30" t="n">
-        <v>738.040536619058</v>
+        <v>529.0856892547549</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="C31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="D31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="E31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="F31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K31" t="n">
-        <v>42.23041924514573</v>
+        <v>42.23041924514575</v>
       </c>
       <c r="L31" t="n">
         <v>105.4471208306433</v>
@@ -6636,37 +6636,37 @@
         <v>262.1720788316464</v>
       </c>
       <c r="O31" t="n">
-        <v>315.4306320098957</v>
+        <v>315.4306320098958</v>
       </c>
       <c r="P31" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="Q31" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="R31" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="S31" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="T31" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="U31" t="n">
-        <v>334.8576753800222</v>
+        <v>43.3209747401595</v>
       </c>
       <c r="V31" t="n">
-        <v>327.5577913285213</v>
+        <v>43.3209747401595</v>
       </c>
       <c r="W31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="X31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="Y31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>758.4452179571599</v>
+        <v>375.4986524930586</v>
       </c>
       <c r="C32" t="n">
-        <v>758.4452179571599</v>
+        <v>375.4986524930586</v>
       </c>
       <c r="D32" t="n">
-        <v>758.4452179571599</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="E32" t="n">
-        <v>758.4452179571599</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="F32" t="n">
-        <v>758.4452179571599</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G32" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H32" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I32" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J32" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602996</v>
       </c>
       <c r="K32" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193752</v>
       </c>
       <c r="L32" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389725</v>
       </c>
       <c r="M32" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292783</v>
       </c>
       <c r="N32" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O32" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P32" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q32" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R32" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="S32" t="n">
-        <v>1715.732642722258</v>
+        <v>1519.054059427093</v>
       </c>
       <c r="T32" t="n">
-        <v>1715.732642722258</v>
+        <v>1519.054059427093</v>
       </c>
       <c r="U32" t="n">
-        <v>1463.171660503092</v>
+        <v>1404.346088583589</v>
       </c>
       <c r="V32" t="n">
-        <v>1463.171660503092</v>
+        <v>1080.225095038991</v>
       </c>
       <c r="W32" t="n">
-        <v>1121.862101083126</v>
+        <v>738.9155356190245</v>
       </c>
       <c r="X32" t="n">
-        <v>758.4452179571599</v>
+        <v>375.4986524930586</v>
       </c>
       <c r="Y32" t="n">
-        <v>758.4452179571599</v>
+        <v>375.4986524930586</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1069.118384851047</v>
+        <v>223.7269271214815</v>
       </c>
       <c r="C33" t="n">
-        <v>879.7061105840106</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="D33" t="n">
-        <v>718.9259943450423</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="E33" t="n">
-        <v>545.3627904664568</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="F33" t="n">
-        <v>384.9350741837009</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G33" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I33" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J33" t="n">
-        <v>54.4093011102587</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K33" t="n">
-        <v>54.4093011102587</v>
+        <v>112.3287381944637</v>
       </c>
       <c r="L33" t="n">
-        <v>337.314433165637</v>
+        <v>395.233870249842</v>
       </c>
       <c r="M33" t="n">
-        <v>712.2060427186985</v>
+        <v>770.1254798029036</v>
       </c>
       <c r="N33" t="n">
-        <v>1115.43980721871</v>
+        <v>1173.359244302915</v>
       </c>
       <c r="O33" t="n">
-        <v>1428.572841265604</v>
+        <v>1486.492278349809</v>
       </c>
       <c r="P33" t="n">
-        <v>1657.813205638054</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="Q33" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R33" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="S33" t="n">
-        <v>1448.884598007117</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T33" t="n">
-        <v>1448.884598007117</v>
+        <v>1322.652080056738</v>
       </c>
       <c r="U33" t="n">
-        <v>1448.884598007117</v>
+        <v>1181.353901935532</v>
       </c>
       <c r="V33" t="n">
-        <v>1448.884598007117</v>
+        <v>938.2741838391661</v>
       </c>
       <c r="W33" t="n">
-        <v>1448.884598007117</v>
+        <v>668.8756145694574</v>
       </c>
       <c r="X33" t="n">
-        <v>1229.376603623813</v>
+        <v>449.3676201861538</v>
       </c>
       <c r="Y33" t="n">
-        <v>1229.376603623813</v>
+        <v>223.7269271214815</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="C34" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="D34" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="E34" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="F34" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G34" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H34" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I34" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J34" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K34" t="n">
-        <v>42.23041924514574</v>
+        <v>42.23041924514575</v>
       </c>
       <c r="L34" t="n">
         <v>105.4471208306433</v>
@@ -6873,37 +6873,37 @@
         <v>262.1720788316464</v>
       </c>
       <c r="O34" t="n">
-        <v>315.4306320098957</v>
+        <v>315.4306320098958</v>
       </c>
       <c r="P34" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="Q34" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="R34" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="S34" t="n">
-        <v>108.4089998231974</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="T34" t="n">
-        <v>34.31465285444516</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="U34" t="n">
-        <v>34.31465285444516</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="V34" t="n">
-        <v>34.31465285444516</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="W34" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="X34" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="Y34" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1526.087509775406</v>
+        <v>816.8178464924752</v>
       </c>
       <c r="C35" t="n">
-        <v>1172.34458312775</v>
+        <v>816.8178464924752</v>
       </c>
       <c r="D35" t="n">
-        <v>831.1605834891368</v>
+        <v>816.8178464924752</v>
       </c>
       <c r="E35" t="n">
-        <v>455.9293591844538</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="F35" t="n">
-        <v>455.9293591844538</v>
+        <v>34.31465285444519</v>
       </c>
       <c r="G35" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444519</v>
       </c>
       <c r="H35" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444519</v>
       </c>
       <c r="I35" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444519</v>
       </c>
       <c r="J35" t="n">
-        <v>79.26440887602985</v>
+        <v>79.2644088760303</v>
       </c>
       <c r="K35" t="n">
-        <v>253.897506719375</v>
+        <v>253.897506719376</v>
       </c>
       <c r="L35" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389729</v>
       </c>
       <c r="M35" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292788</v>
       </c>
       <c r="N35" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O35" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P35" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716937</v>
       </c>
       <c r="Q35" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R35" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="S35" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="T35" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="U35" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="V35" t="n">
-        <v>1526.087509775406</v>
+        <v>1391.611649177661</v>
       </c>
       <c r="W35" t="n">
-        <v>1526.087509775406</v>
+        <v>1050.302089757695</v>
       </c>
       <c r="X35" t="n">
-        <v>1526.087509775406</v>
+        <v>816.8178464924752</v>
       </c>
       <c r="Y35" t="n">
-        <v>1526.087509775406</v>
+        <v>816.8178464924752</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>252.2229140271338</v>
+        <v>223.7269271214815</v>
       </c>
       <c r="C36" t="n">
-        <v>62.81063976009753</v>
+        <v>34.31465285444519</v>
       </c>
       <c r="D36" t="n">
-        <v>62.81063976009753</v>
+        <v>34.31465285444519</v>
       </c>
       <c r="E36" t="n">
-        <v>62.81063976009753</v>
+        <v>34.31465285444519</v>
       </c>
       <c r="F36" t="n">
-        <v>62.81063976009753</v>
+        <v>34.31465285444519</v>
       </c>
       <c r="G36" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444519</v>
       </c>
       <c r="H36" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444519</v>
       </c>
       <c r="I36" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444519</v>
       </c>
       <c r="J36" t="n">
-        <v>54.4093011102587</v>
+        <v>34.31465285444519</v>
       </c>
       <c r="K36" t="n">
-        <v>215.5091216889814</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L36" t="n">
-        <v>498.4142537443597</v>
+        <v>478.3196054885462</v>
       </c>
       <c r="M36" t="n">
-        <v>873.3058632974213</v>
+        <v>853.2112150416078</v>
       </c>
       <c r="N36" t="n">
-        <v>1173.359244302914</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O36" t="n">
-        <v>1486.492278349808</v>
+        <v>1569.578013588513</v>
       </c>
       <c r="P36" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="Q36" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R36" t="n">
-        <v>1627.958867440572</v>
+        <v>1627.958867440574</v>
       </c>
       <c r="S36" t="n">
-        <v>1627.958867440572</v>
+        <v>1448.884598007118</v>
       </c>
       <c r="T36" t="n">
-        <v>1627.958867440572</v>
+        <v>1234.878304775053</v>
       </c>
       <c r="U36" t="n">
-        <v>1388.385741768119</v>
+        <v>1181.353901935532</v>
       </c>
       <c r="V36" t="n">
-        <v>1145.306023671754</v>
+        <v>938.2741838391661</v>
       </c>
       <c r="W36" t="n">
-        <v>875.9074544020449</v>
+        <v>668.8756145694574</v>
       </c>
       <c r="X36" t="n">
-        <v>656.3994600187413</v>
+        <v>449.3676201861538</v>
       </c>
       <c r="Y36" t="n">
-        <v>430.7587669540689</v>
+        <v>223.7269271214815</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444519</v>
       </c>
       <c r="C37" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444519</v>
       </c>
       <c r="D37" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444519</v>
       </c>
       <c r="E37" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444519</v>
       </c>
       <c r="F37" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444519</v>
       </c>
       <c r="G37" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444519</v>
       </c>
       <c r="H37" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444519</v>
       </c>
       <c r="I37" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444519</v>
       </c>
       <c r="J37" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444519</v>
       </c>
       <c r="K37" t="n">
-        <v>42.23041924514574</v>
+        <v>42.23041924514575</v>
       </c>
       <c r="L37" t="n">
         <v>105.4471208306433</v>
@@ -7110,37 +7110,37 @@
         <v>262.1720788316464</v>
       </c>
       <c r="O37" t="n">
-        <v>315.4306320098957</v>
+        <v>315.4306320098958</v>
       </c>
       <c r="P37" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="Q37" t="n">
-        <v>260.9755581809702</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="R37" t="n">
-        <v>260.9755581809702</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="S37" t="n">
-        <v>260.9755581809702</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="T37" t="n">
-        <v>260.9755581809702</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="U37" t="n">
-        <v>260.9755581809702</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="V37" t="n">
-        <v>260.9755581809702</v>
+        <v>87.27281155734559</v>
       </c>
       <c r="W37" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444519</v>
       </c>
       <c r="X37" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444519</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444519</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1592.175479470139</v>
+        <v>795.3295488354476</v>
       </c>
       <c r="C38" t="n">
-        <v>1238.432552822484</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="D38" t="n">
-        <v>1238.432552822484</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="E38" t="n">
-        <v>863.2013285178008</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="F38" t="n">
-        <v>455.9293591844538</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="G38" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="H38" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="I38" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="J38" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K38" t="n">
         <v>253.8975067193751</v>
       </c>
       <c r="L38" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389722</v>
       </c>
       <c r="M38" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292781</v>
       </c>
       <c r="N38" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O38" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P38" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q38" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R38" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="S38" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="T38" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="U38" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="V38" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="W38" t="n">
-        <v>1715.732642722258</v>
+        <v>1374.423083302292</v>
       </c>
       <c r="X38" t="n">
-        <v>1715.732642722258</v>
+        <v>1181.476586631862</v>
       </c>
       <c r="Y38" t="n">
-        <v>1715.732642722258</v>
+        <v>795.3295488354476</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>579.5698149812724</v>
+        <v>529.0856892547549</v>
       </c>
       <c r="C39" t="n">
-        <v>579.5698149812724</v>
+        <v>529.0856892547549</v>
       </c>
       <c r="D39" t="n">
-        <v>579.5698149812724</v>
+        <v>368.3055730157866</v>
       </c>
       <c r="E39" t="n">
-        <v>545.3627904664568</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F39" t="n">
-        <v>384.9350741837009</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="G39" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="I39" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="J39" t="n">
-        <v>54.4093011102587</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="K39" t="n">
-        <v>215.5091216889814</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L39" t="n">
-        <v>498.4142537443597</v>
+        <v>478.3196054885462</v>
       </c>
       <c r="M39" t="n">
-        <v>873.3058632974213</v>
+        <v>853.2112150416078</v>
       </c>
       <c r="N39" t="n">
-        <v>1276.539627797432</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O39" t="n">
-        <v>1486.492278349808</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P39" t="n">
-        <v>1715.732642722258</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q39" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R39" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="S39" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="T39" t="n">
-        <v>1715.732642722258</v>
+        <v>1501.726349490193</v>
       </c>
       <c r="U39" t="n">
-        <v>1715.732642722258</v>
+        <v>1501.726349490193</v>
       </c>
       <c r="V39" t="n">
-        <v>1472.652924625892</v>
+        <v>1258.646631393827</v>
       </c>
       <c r="W39" t="n">
-        <v>1203.254355356184</v>
+        <v>989.2480621241185</v>
       </c>
       <c r="X39" t="n">
-        <v>983.74636097288</v>
+        <v>769.7400677408149</v>
       </c>
       <c r="Y39" t="n">
-        <v>758.1056679082076</v>
+        <v>544.0993746761426</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>202.4532194928011</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="C40" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="D40" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="E40" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="F40" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="G40" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="H40" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="I40" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="J40" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="K40" t="n">
         <v>42.23041924514574</v>
@@ -7347,37 +7347,37 @@
         <v>262.1720788316464</v>
       </c>
       <c r="O40" t="n">
-        <v>315.4306320098957</v>
+        <v>315.4306320098958</v>
       </c>
       <c r="P40" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="Q40" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="R40" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="S40" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="T40" t="n">
-        <v>334.8576753800222</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="U40" t="n">
-        <v>334.8576753800222</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="V40" t="n">
-        <v>334.8576753800222</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="W40" t="n">
-        <v>334.8576753800222</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="X40" t="n">
-        <v>334.8576753800222</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="Y40" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444517</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1715.732642722258</v>
+        <v>392.0626992193376</v>
       </c>
       <c r="C41" t="n">
-        <v>1361.989716074603</v>
+        <v>392.0626992193376</v>
       </c>
       <c r="D41" t="n">
-        <v>1020.805716435989</v>
+        <v>50.87869958072412</v>
       </c>
       <c r="E41" t="n">
-        <v>645.5744921313063</v>
+        <v>50.87869958072412</v>
       </c>
       <c r="F41" t="n">
-        <v>238.3025227979593</v>
+        <v>50.87869958072412</v>
       </c>
       <c r="G41" t="n">
-        <v>34.31465285444516</v>
+        <v>50.87869958072412</v>
       </c>
       <c r="H41" t="n">
-        <v>34.31465285444516</v>
+        <v>50.87869958072412</v>
       </c>
       <c r="I41" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="J41" t="n">
-        <v>79.26440887602965</v>
+        <v>79.26440887602992</v>
       </c>
       <c r="K41" t="n">
-        <v>253.8975067193749</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L41" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389722</v>
       </c>
       <c r="M41" t="n">
-        <v>856.6460009292779</v>
+        <v>856.6460009292782</v>
       </c>
       <c r="N41" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O41" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P41" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q41" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R41" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="S41" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="T41" t="n">
-        <v>1715.732642722258</v>
+        <v>1497.385195807267</v>
       </c>
       <c r="U41" t="n">
-        <v>1715.732642722258</v>
+        <v>1497.385195807267</v>
       </c>
       <c r="V41" t="n">
-        <v>1715.732642722258</v>
+        <v>1497.385195807267</v>
       </c>
       <c r="W41" t="n">
-        <v>1715.732642722258</v>
+        <v>1156.0756363873</v>
       </c>
       <c r="X41" t="n">
-        <v>1715.732642722258</v>
+        <v>1156.0756363873</v>
       </c>
       <c r="Y41" t="n">
-        <v>1715.732642722258</v>
+        <v>769.9285985908864</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>223.7269271214815</v>
+        <v>430.7587669540694</v>
       </c>
       <c r="C42" t="n">
-        <v>34.31465285444516</v>
+        <v>241.3464926870331</v>
       </c>
       <c r="D42" t="n">
-        <v>34.31465285444516</v>
+        <v>80.56637644806483</v>
       </c>
       <c r="E42" t="n">
-        <v>34.31465285444516</v>
+        <v>80.56637644806483</v>
       </c>
       <c r="F42" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="G42" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="H42" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="I42" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="J42" t="n">
-        <v>34.31465285444516</v>
+        <v>54.40930111025872</v>
       </c>
       <c r="K42" t="n">
-        <v>34.31465285444516</v>
+        <v>215.5091216889815</v>
       </c>
       <c r="L42" t="n">
-        <v>317.2197849098234</v>
+        <v>498.4142537443597</v>
       </c>
       <c r="M42" t="n">
-        <v>692.1113944628851</v>
+        <v>873.3058632974213</v>
       </c>
       <c r="N42" t="n">
-        <v>1095.345158962896</v>
+        <v>1276.539627797432</v>
       </c>
       <c r="O42" t="n">
-        <v>1408.47819300979</v>
+        <v>1589.672661844326</v>
       </c>
       <c r="P42" t="n">
-        <v>1637.71855738224</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="Q42" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R42" t="n">
-        <v>1627.958867440572</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S42" t="n">
-        <v>1448.884598007117</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="T42" t="n">
-        <v>1448.884598007117</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="U42" t="n">
-        <v>1359.889754862467</v>
+        <v>1388.38574176812</v>
       </c>
       <c r="V42" t="n">
-        <v>1116.810036766101</v>
+        <v>1145.306023671754</v>
       </c>
       <c r="W42" t="n">
-        <v>847.4114674963926</v>
+        <v>875.9074544020453</v>
       </c>
       <c r="X42" t="n">
-        <v>627.9034731130889</v>
+        <v>656.3994600187417</v>
       </c>
       <c r="Y42" t="n">
-        <v>402.2627800484165</v>
+        <v>430.7587669540694</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="C43" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="D43" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="E43" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="F43" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="G43" t="n">
-        <v>1545.980103546879</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="H43" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="I43" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="J43" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="K43" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L43" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M43" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N43" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O43" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098958</v>
       </c>
       <c r="P43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="Q43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="R43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="S43" t="n">
-        <v>1715.732642722258</v>
+        <v>108.4089998231975</v>
       </c>
       <c r="T43" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="U43" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="V43" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="W43" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="X43" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="Y43" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444517</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1715.732642722258</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="C44" t="n">
-        <v>1715.732642722258</v>
+        <v>1166.794881312374</v>
       </c>
       <c r="D44" t="n">
-        <v>1374.548643083645</v>
+        <v>1166.794881312374</v>
       </c>
       <c r="E44" t="n">
-        <v>999.3174187789617</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="F44" t="n">
-        <v>592.0454494456147</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="G44" t="n">
-        <v>170.4307431156061</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H44" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="I44" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="J44" t="n">
-        <v>79.26440887602965</v>
+        <v>79.26440887602992</v>
       </c>
       <c r="K44" t="n">
-        <v>253.8975067193749</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L44" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389722</v>
       </c>
       <c r="M44" t="n">
-        <v>856.6460009292779</v>
+        <v>856.6460009292782</v>
       </c>
       <c r="N44" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O44" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P44" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q44" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R44" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="S44" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="T44" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="U44" t="n">
-        <v>1715.732642722258</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="V44" t="n">
-        <v>1715.732642722258</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="W44" t="n">
-        <v>1715.732642722258</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="X44" t="n">
-        <v>1715.732642722258</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="Y44" t="n">
-        <v>1715.732642722258</v>
+        <v>1463.171660503092</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>857.4382613196117</v>
+        <v>530.1669420683619</v>
       </c>
       <c r="C45" t="n">
-        <v>857.4382613196117</v>
+        <v>530.1669420683619</v>
       </c>
       <c r="D45" t="n">
-        <v>718.9259943450423</v>
+        <v>530.1669420683619</v>
       </c>
       <c r="E45" t="n">
-        <v>545.3627904664568</v>
+        <v>356.6037381897763</v>
       </c>
       <c r="F45" t="n">
-        <v>384.9350741837009</v>
+        <v>196.1760219070204</v>
       </c>
       <c r="G45" t="n">
-        <v>235.4660406069408</v>
+        <v>196.1760219070204</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9747045751594</v>
+        <v>76.68468587523898</v>
       </c>
       <c r="I45" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="J45" t="n">
-        <v>54.4093011102587</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="K45" t="n">
-        <v>215.5091216889814</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L45" t="n">
-        <v>498.4142537443597</v>
+        <v>478.3196054885462</v>
       </c>
       <c r="M45" t="n">
-        <v>873.3058632974213</v>
+        <v>853.2112150416078</v>
       </c>
       <c r="N45" t="n">
-        <v>1082.820066520716</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O45" t="n">
-        <v>1395.95310056761</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P45" t="n">
-        <v>1625.19346494006</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q45" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R45" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="S45" t="n">
-        <v>1536.658373288803</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="T45" t="n">
-        <v>1322.652080056737</v>
+        <v>1501.726349490193</v>
       </c>
       <c r="U45" t="n">
-        <v>1083.078954384284</v>
+        <v>1262.15322381774</v>
       </c>
       <c r="V45" t="n">
-        <v>1083.078954384284</v>
+        <v>1019.073505721374</v>
       </c>
       <c r="W45" t="n">
-        <v>1083.078954384284</v>
+        <v>749.6749364516655</v>
       </c>
       <c r="X45" t="n">
-        <v>1083.078954384284</v>
+        <v>530.1669420683619</v>
       </c>
       <c r="Y45" t="n">
-        <v>857.4382613196117</v>
+        <v>530.1669420683619</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="C46" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="D46" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="E46" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="F46" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="G46" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="H46" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="I46" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="J46" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="K46" t="n">
         <v>42.23041924514574</v>
@@ -7821,37 +7821,37 @@
         <v>262.1720788316464</v>
       </c>
       <c r="O46" t="n">
-        <v>315.4306320098957</v>
+        <v>315.4306320098958</v>
       </c>
       <c r="P46" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="Q46" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="R46" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="S46" t="n">
-        <v>334.8576753800222</v>
+        <v>257.5493975016237</v>
       </c>
       <c r="T46" t="n">
-        <v>325.8513534943079</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="U46" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="V46" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="W46" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="X46" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
     </row>
   </sheetData>
@@ -8768,13 +8768,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J12" t="n">
-        <v>61.40936639976317</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>8.646382090491642</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>227.6529352291873</v>
+        <v>44.62821923470698</v>
       </c>
       <c r="M12" t="n">
         <v>301.77688131</v>
@@ -9005,16 +9005,16 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J15" t="n">
-        <v>61.40936639976317</v>
+        <v>61.40936639976316</v>
       </c>
       <c r="K15" t="n">
-        <v>8.646382090491642</v>
+        <v>8.646382090491613</v>
       </c>
       <c r="L15" t="n">
-        <v>240.3045437566416</v>
+        <v>227.6529352291872</v>
       </c>
       <c r="M15" t="n">
-        <v>289.1252727825452</v>
+        <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
         <v>310.6138585746227</v>
@@ -9254,16 +9254,16 @@
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>310.6138585746227</v>
+        <v>114.9375340526877</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P18" t="n">
-        <v>102.1412644882566</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.67636752131754</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>109.5746066315038</v>
+        <v>109.574606631504</v>
       </c>
       <c r="K20" t="n">
         <v>210.0462273461148</v>
@@ -9479,10 +9479,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J21" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976316</v>
       </c>
       <c r="K21" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
@@ -9497,10 +9497,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P21" t="n">
-        <v>206.3638740786793</v>
+        <v>122.4388889890791</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.1808494245542</v>
+        <v>44.67636752131753</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9658,7 +9658,7 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q23" t="n">
-        <v>137.5801139476183</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R23" t="n">
         <v>42.58424007769262</v>
@@ -9716,16 +9716,16 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976316</v>
       </c>
       <c r="K24" t="n">
-        <v>171.373473584151</v>
+        <v>87.44848849455074</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>106.100556788065</v>
+        <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
         <v>310.6138585746227</v>
@@ -9737,7 +9737,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131753</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9956,7 +9956,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>171.373473584151</v>
+        <v>67.15086399372898</v>
       </c>
       <c r="L27" t="n">
         <v>240.3045437566416</v>
@@ -9965,7 +9965,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N27" t="n">
-        <v>206.3912489841998</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O27" t="n">
         <v>255.2227828913207</v>
@@ -9974,7 +9974,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q27" t="n">
-        <v>44.67636752131754</v>
+        <v>44.67636752131753</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10190,10 +10190,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>61.40936639976317</v>
+        <v>61.40936639976316</v>
       </c>
       <c r="K30" t="n">
-        <v>171.373473584151</v>
+        <v>87.44848849455074</v>
       </c>
       <c r="L30" t="n">
         <v>240.3045437566416</v>
@@ -10205,13 +10205,13 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O30" t="n">
-        <v>79.84408287020673</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P30" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131753</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10427,10 +10427,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976316</v>
       </c>
       <c r="K33" t="n">
-        <v>8.646382090491642</v>
+        <v>87.44848849455074</v>
       </c>
       <c r="L33" t="n">
         <v>240.3045437566416</v>
@@ -10448,7 +10448,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q33" t="n">
-        <v>103.1808494245546</v>
+        <v>44.67636752131753</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10664,7 +10664,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976316</v>
       </c>
       <c r="K36" t="n">
         <v>171.373473584151</v>
@@ -10676,16 +10676,16 @@
         <v>301.77688131</v>
       </c>
       <c r="N36" t="n">
-        <v>206.3912489841998</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O36" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P36" t="n">
-        <v>206.3638740786793</v>
+        <v>122.4388889890795</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.67636752131754</v>
+        <v>44.67636752131753</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10837,7 +10837,7 @@
         <v>283.4008070189657</v>
       </c>
       <c r="O38" t="n">
-        <v>246.7585174582587</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P38" t="n">
         <v>208.5255628951208</v>
@@ -10901,7 +10901,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976316</v>
       </c>
       <c r="K39" t="n">
         <v>171.373473584151</v>
@@ -10913,16 +10913,16 @@
         <v>301.77688131</v>
       </c>
       <c r="N39" t="n">
-        <v>310.6138585746227</v>
+        <v>135.2351585535094</v>
       </c>
       <c r="O39" t="n">
-        <v>151.0001733008981</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P39" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.67636752131754</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>109.5746066315036</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K41" t="n">
         <v>210.0462273461148</v>
@@ -11138,10 +11138,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>61.40936639976317</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>8.646382090491642</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L42" t="n">
         <v>240.3045437566416</v>
@@ -11156,10 +11156,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P42" t="n">
-        <v>206.3638740786793</v>
+        <v>102.1412644882573</v>
       </c>
       <c r="Q42" t="n">
-        <v>123.4784739253759</v>
+        <v>44.67636752131753</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>109.5746066315036</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K44" t="n">
         <v>210.0462273461148</v>
@@ -11375,7 +11375,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976316</v>
       </c>
       <c r="K45" t="n">
         <v>171.373473584151</v>
@@ -11387,7 +11387,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N45" t="n">
-        <v>114.9375340526873</v>
+        <v>135.2351585535094</v>
       </c>
       <c r="O45" t="n">
         <v>255.2227828913207</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>374.0872403778333</v>
+        <v>243.3685736011528</v>
       </c>
       <c r="C11" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E11" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
-        <v>116.0035871823403</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V11" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>382.2855674184499</v>
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>74.1734728788321</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>80.84345120350704</v>
+        <v>23.93484810383265</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,19 +23384,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T12" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>237.1773944157285</v>
       </c>
       <c r="V12" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="13">
@@ -23433,13 +23433,13 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H13" t="n">
-        <v>155.7061618107478</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R13" t="n">
         <v>174.3941919203111</v>
@@ -23478,13 +23478,13 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W13" t="n">
-        <v>290.3107070893353</v>
+        <v>209.9143876031826</v>
       </c>
       <c r="X13" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y13" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>350.2054973811788</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>185.5090622027477</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T14" t="n">
-        <v>189.1071974481698</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U14" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V14" t="n">
-        <v>320.879783609152</v>
+        <v>153.7444949020805</v>
       </c>
       <c r="W14" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y14" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
@@ -23588,10 +23588,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H15" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>80.84345120350704</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>86.89603752886882</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23633,16 +23633,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>128.2202766384138</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>80.08358030713376</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y15" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.1432960270615</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S16" t="n">
-        <v>147.648993701642</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6213336334641</v>
+        <v>285.2294345609111</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23746,13 +23746,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>332.2779548450047</v>
+        <v>171.3140416115342</v>
       </c>
       <c r="I17" t="n">
-        <v>185.5090622027478</v>
+        <v>185.5090622027477</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23794,10 +23794,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X17" t="n">
-        <v>119.3167056202949</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y17" t="n">
         <v>382.2855674184499</v>
@@ -23810,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>173.4205784779043</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>158.8234391199283</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>69.16994896051126</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -23895,7 +23895,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D19" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>141.676141212225</v>
@@ -23937,10 +23937,10 @@
         <v>73.1432960270615</v>
       </c>
       <c r="R19" t="n">
-        <v>101.0407884212464</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T19" t="n">
         <v>221.0023972007068</v>
@@ -23958,7 +23958,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y19" t="n">
-        <v>217.1412728141684</v>
+        <v>64.78633076455782</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D20" t="n">
-        <v>78.90886386754283</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>403.1992496400135</v>
+        <v>346.4868448174508</v>
       </c>
       <c r="G20" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>185.5090622027478</v>
+        <v>185.5090622027477</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T20" t="n">
         <v>216.1639724458418</v>
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>86.5245409490355</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>86.89603752886885</v>
+        <v>86.89603752886882</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24104,16 +24104,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>137.1143201501531</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F22" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>168.0550137836253</v>
@@ -24150,7 +24150,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J22" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.14329602706152</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R22" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S22" t="n">
-        <v>224.1841888012565</v>
+        <v>65.57347871938188</v>
       </c>
       <c r="T22" t="n">
         <v>221.0023972007068</v>
@@ -24189,10 +24189,10 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X22" t="n">
-        <v>214.6925701972567</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y22" t="n">
         <v>217.1412728141684</v>
@@ -24217,16 +24217,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>185.5090622027477</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,13 +24265,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>277.3210083733412</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>359.7827142947061</v>
+        <v>319.8725219008758</v>
       </c>
       <c r="Y23" t="n">
         <v>382.2855674184499</v>
@@ -24287,13 +24287,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>155.8423991568171</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>157.4387506247108</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
@@ -24302,10 +24302,10 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H24" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>86.89603752886882</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24381,13 +24381,13 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H25" t="n">
-        <v>160.0829940331247</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>145.433169315347</v>
       </c>
       <c r="J25" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,16 +24408,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.14329602706152</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R25" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T25" t="n">
-        <v>147.6489937016422</v>
+        <v>83.54779893351019</v>
       </c>
       <c r="U25" t="n">
         <v>288.6213336334641</v>
@@ -24454,16 +24454,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I26" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>216.1639724458418</v>
@@ -24502,16 +24502,16 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V26" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>192.6474255876347</v>
+        <v>270.3295083300612</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>173.4205784779043</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
@@ -24530,7 +24530,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
@@ -24539,7 +24539,7 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H27" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>80.84345120350704</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>86.89603752886882</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24578,7 +24578,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>199.8980410626322</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>145.1826502507107</v>
@@ -24663,10 +24663,10 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>159.2302957609864</v>
       </c>
       <c r="X28" t="n">
-        <v>214.6925701972567</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y28" t="n">
         <v>217.1412728141684</v>
@@ -24682,25 +24682,25 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
-        <v>371.4789120616362</v>
+        <v>367.7342145170371</v>
       </c>
       <c r="F29" t="n">
-        <v>128.4369249212923</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>185.5090622027477</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S29" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>216.1639724458418</v>
@@ -24739,16 +24739,16 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V29" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24764,7 +24764,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>140.248918225303</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24773,13 +24773,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>86.89603752886883</v>
+        <v>86.89603752886882</v>
       </c>
       <c r="S30" t="n">
         <v>177.283526739121</v>
@@ -24815,7 +24815,7 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>10.44761554880989</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>237.8821299734639</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>281.3944484224781</v>
       </c>
       <c r="X31" t="n">
         <v>221.9194554082425</v>
@@ -24922,7 +24922,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>371.4789120616362</v>
@@ -24931,13 +24931,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>218.2963168627734</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>185.5090622027477</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S32" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>136.4744812619059</v>
       </c>
       <c r="V32" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24995,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>18.09485781262674</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>86.89603752886882</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1773944157285</v>
+        <v>97.29219807573489</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25125,10 +25125,10 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T34" t="n">
-        <v>147.6489937016421</v>
+        <v>213.7755119897208</v>
       </c>
       <c r="U34" t="n">
         <v>288.6213336334641</v>
@@ -25137,7 +25137,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W34" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>221.9194554082425</v>
@@ -25156,25 +25156,25 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H35" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I35" t="n">
-        <v>185.5090622027478</v>
+        <v>185.5090622027477</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25213,13 +25213,13 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V35" t="n">
-        <v>133.131101991768</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>359.7827142947061</v>
+        <v>128.6333134621389</v>
       </c>
       <c r="Y35" t="n">
         <v>382.2855674184499</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25247,7 +25247,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>119.7633162043966</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H36" t="n">
         <v>118.2964226714636</v>
@@ -25283,13 +25283,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>184.1882356046032</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R37" t="n">
         <v>174.3941919203111</v>
@@ -25371,10 +25371,10 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V37" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>65.91641081607554</v>
+        <v>237.8821299734639</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>251.7656487582356</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,19 +25399,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H38" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I38" t="n">
-        <v>185.5090622027478</v>
+        <v>185.5090622027477</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W38" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>359.7827142947061</v>
+        <v>168.76568259098</v>
       </c>
       <c r="Y38" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25469,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>161.886945830492</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>137.9626175701322</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>86.89603752886883</v>
+        <v>86.89603752886882</v>
       </c>
       <c r="S39" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T39" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>237.1773944157285</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.53650933661919</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
@@ -25602,7 +25602,7 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T40" t="n">
-        <v>221.0023972007068</v>
+        <v>140.6060777145539</v>
       </c>
       <c r="U40" t="n">
         <v>288.6213336334641</v>
@@ -25617,7 +25617,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>215.4505680226295</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H41" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I41" t="n">
-        <v>185.5090622027478</v>
+        <v>169.1106559437316</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>194.7117974622146</v>
       </c>
       <c r="T41" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>250.0353723969745</v>
@@ -25690,13 +25690,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,19 +25706,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>113.0342327622449</v>
       </c>
       <c r="G42" t="n">
         <v>147.9743432409925</v>
@@ -25757,13 +25757,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T42" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U42" t="n">
-        <v>149.0724997025253</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H43" t="n">
-        <v>30.60041551642877</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I43" t="n">
         <v>145.433169315347</v>
@@ -25836,10 +25836,10 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S43" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.0023972007068</v>
+        <v>147.648993701642</v>
       </c>
       <c r="U43" t="n">
         <v>288.6213336334641</v>
@@ -25867,25 +25867,25 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C44" t="n">
-        <v>350.2054973811788</v>
+        <v>56.79248598236757</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>197.5230254864554</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>185.5090622027478</v>
+        <v>185.5090622027477</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25949,7 +25949,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>22.0451707717549</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25958,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>38.89711851292117</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>86.89603752886883</v>
+        <v>86.89603752886882</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26003,16 +26003,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -26073,13 +26073,13 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S46" t="n">
-        <v>224.1841888012565</v>
+        <v>147.648993701642</v>
       </c>
       <c r="T46" t="n">
-        <v>212.0861385338497</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>569592.8220187555</v>
+        <v>569592.8220187556</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>569592.8220187553</v>
+        <v>569592.8220187555</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>569592.8220187553</v>
+        <v>569592.8220187555</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>569592.8220187554</v>
+        <v>569592.8220187555</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>569592.8220187553</v>
+        <v>569592.8220187555</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>569592.8220187554</v>
+        <v>569592.8220187555</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>569592.8220187554</v>
+        <v>569592.8220187555</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>569592.8220187555</v>
+        <v>569592.8220187556</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>569592.8220187553</v>
+        <v>569592.8220187554</v>
       </c>
     </row>
     <row r="15">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>639400.6965029333</v>
+        <v>639400.696502933</v>
       </c>
       <c r="C2" t="n">
-        <v>639400.6965029333</v>
+        <v>639400.6965029332</v>
       </c>
       <c r="D2" t="n">
-        <v>639400.6965029333</v>
+        <v>639400.6965029332</v>
       </c>
       <c r="E2" t="n">
+        <v>363170.0814330822</v>
+      </c>
+      <c r="F2" t="n">
+        <v>363170.0814330822</v>
+      </c>
+      <c r="G2" t="n">
         <v>363170.0814330823</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>363170.0814330823</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>363170.0814330822</v>
-      </c>
-      <c r="H2" t="n">
-        <v>363170.0814330822</v>
-      </c>
-      <c r="I2" t="n">
-        <v>363170.0814330823</v>
       </c>
       <c r="J2" t="n">
         <v>363170.0814330822</v>
       </c>
       <c r="K2" t="n">
-        <v>363170.0814330821</v>
+        <v>363170.0814330822</v>
       </c>
       <c r="L2" t="n">
+        <v>363170.0814330822</v>
+      </c>
+      <c r="M2" t="n">
         <v>363170.0814330823</v>
       </c>
-      <c r="M2" t="n">
-        <v>363170.0814330822</v>
-      </c>
       <c r="N2" t="n">
-        <v>363170.081433082</v>
+        <v>363170.0814330823</v>
       </c>
       <c r="O2" t="n">
         <v>363170.0814330822</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>497053.1518174925</v>
+        <v>497053.1518174926</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>435522.6386213153</v>
+        <v>435522.6386213152</v>
       </c>
       <c r="C4" t="n">
         <v>435522.6386213153</v>
       </c>
       <c r="D4" t="n">
-        <v>435522.6386213153</v>
+        <v>435522.6386213152</v>
       </c>
       <c r="E4" t="n">
-        <v>56467.20191492155</v>
+        <v>56467.20191492156</v>
       </c>
       <c r="F4" t="n">
-        <v>56467.20191492155</v>
+        <v>56467.20191492156</v>
       </c>
       <c r="G4" t="n">
         <v>56467.20191492156</v>
@@ -26441,25 +26441,25 @@
         <v>56467.20191492156</v>
       </c>
       <c r="J4" t="n">
-        <v>56467.20191492155</v>
+        <v>56467.20191492156</v>
       </c>
       <c r="K4" t="n">
-        <v>56467.20191492155</v>
+        <v>56467.20191492156</v>
       </c>
       <c r="L4" t="n">
         <v>56467.20191492156</v>
       </c>
       <c r="M4" t="n">
-        <v>56467.20191492155</v>
+        <v>56467.20191492156</v>
       </c>
       <c r="N4" t="n">
-        <v>56467.20191492155</v>
+        <v>56467.20191492156</v>
       </c>
       <c r="O4" t="n">
-        <v>56467.20191492155</v>
+        <v>56467.20191492156</v>
       </c>
       <c r="P4" t="n">
-        <v>56467.20191492155</v>
+        <v>56467.20191492156</v>
       </c>
     </row>
     <row r="5">
@@ -26481,37 +26481,37 @@
         <v>36091.33751189047</v>
       </c>
       <c r="F5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189047</v>
       </c>
       <c r="G5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189047</v>
       </c>
       <c r="H5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189047</v>
       </c>
       <c r="I5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189047</v>
       </c>
       <c r="J5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189047</v>
       </c>
       <c r="K5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189047</v>
       </c>
       <c r="L5" t="n">
         <v>36091.33751189047</v>
       </c>
       <c r="M5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189048</v>
       </c>
       <c r="N5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189047</v>
       </c>
       <c r="O5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189047</v>
       </c>
       <c r="P5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189047</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>170250.457881618</v>
+        <v>170205.7940395659</v>
       </c>
       <c r="C6" t="n">
-        <v>170250.457881618</v>
+        <v>170205.794039566</v>
       </c>
       <c r="D6" t="n">
-        <v>170250.457881618</v>
+        <v>170205.794039566</v>
       </c>
       <c r="E6" t="n">
-        <v>-226441.6098112222</v>
+        <v>-236011.4672763726</v>
       </c>
       <c r="F6" t="n">
-        <v>270611.5420062704</v>
+        <v>261041.6845411199</v>
       </c>
       <c r="G6" t="n">
-        <v>270611.5420062703</v>
+        <v>261041.68454112</v>
       </c>
       <c r="H6" t="n">
-        <v>270611.5420062701</v>
+        <v>261041.68454112</v>
       </c>
       <c r="I6" t="n">
-        <v>270611.5420062703</v>
+        <v>261041.68454112</v>
       </c>
       <c r="J6" t="n">
-        <v>270611.5420062701</v>
+        <v>261041.6845411199</v>
       </c>
       <c r="K6" t="n">
-        <v>270611.5420062701</v>
+        <v>261041.6845411199</v>
       </c>
       <c r="L6" t="n">
-        <v>270611.5420062703</v>
+        <v>261041.6845411199</v>
       </c>
       <c r="M6" t="n">
-        <v>163719.6826320309</v>
+        <v>154149.8251668807</v>
       </c>
       <c r="N6" t="n">
-        <v>270611.54200627</v>
+        <v>261041.68454112</v>
       </c>
       <c r="O6" t="n">
-        <v>270611.5420062701</v>
+        <v>261041.68454112</v>
       </c>
       <c r="P6" t="n">
-        <v>270611.5420062701</v>
+        <v>261041.6845411199</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="F3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409238</v>
       </c>
       <c r="G3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409238</v>
       </c>
       <c r="H3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409238</v>
       </c>
       <c r="I3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409238</v>
       </c>
       <c r="J3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409238</v>
       </c>
       <c r="K3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409238</v>
       </c>
       <c r="L3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409238</v>
       </c>
       <c r="M3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409238</v>
       </c>
       <c r="N3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409238</v>
       </c>
       <c r="O3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409238</v>
       </c>
       <c r="P3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409238</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>428.9331606805647</v>
+      </c>
+      <c r="F4" t="n">
         <v>428.9331606805646</v>
       </c>
-      <c r="F4" t="n">
-        <v>428.9331606805645</v>
-      </c>
       <c r="G4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805647</v>
       </c>
       <c r="H4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805647</v>
       </c>
       <c r="I4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805647</v>
       </c>
       <c r="J4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805647</v>
       </c>
       <c r="K4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805647</v>
       </c>
       <c r="L4" t="n">
+        <v>428.9331606805647</v>
+      </c>
+      <c r="M4" t="n">
+        <v>428.9331606805648</v>
+      </c>
+      <c r="N4" t="n">
         <v>428.9331606805646</v>
       </c>
-      <c r="M4" t="n">
-        <v>428.9331606805645</v>
-      </c>
-      <c r="N4" t="n">
-        <v>428.9331606805645</v>
-      </c>
       <c r="O4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="P4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805646</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31764,16 +31764,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K11" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L11" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M11" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N11" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O11" t="n">
         <v>311.0863102573771</v>
@@ -31782,16 +31782,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q11" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R11" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S11" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T11" t="n">
-        <v>8.082321954146304</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U11" t="n">
         <v>0.1477066262322567</v>
@@ -31831,25 +31831,25 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H12" t="n">
-        <v>9.540794251433153</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I12" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J12" t="n">
-        <v>93.33253813357018</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K12" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L12" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M12" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N12" t="n">
         <v>256.9298629953381</v>
@@ -31864,16 +31864,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R12" t="n">
-        <v>61.33491526943131</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S12" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T12" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H13" t="n">
-        <v>7.363462861315142</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I13" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J13" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K13" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L13" t="n">
         <v>123.1309525909486</v>
@@ -31940,7 +31940,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R13" t="n">
         <v>37.2389440818657</v>
@@ -31952,7 +31952,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.846332827903209</v>
+        <v>1.84633282790321</v>
       </c>
       <c r="H14" t="n">
         <v>18.90875607376375</v>
       </c>
       <c r="I14" t="n">
-        <v>71.18074634773855</v>
+        <v>71.18074634773856</v>
       </c>
       <c r="J14" t="n">
         <v>156.7051908522502</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993455</v>
       </c>
       <c r="H15" t="n">
         <v>9.540794251433153</v>
@@ -32077,7 +32077,7 @@
         <v>34.01236824420992</v>
       </c>
       <c r="J15" t="n">
-        <v>93.33253813357018</v>
+        <v>93.3325381335702</v>
       </c>
       <c r="K15" t="n">
         <v>159.5201734582263</v>
@@ -32107,7 +32107,7 @@
         <v>18.34934770881897</v>
       </c>
       <c r="T15" t="n">
-        <v>3.981830116742535</v>
+        <v>3.981830116742536</v>
       </c>
       <c r="U15" t="n">
         <v>0.06499178645390433</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196985</v>
       </c>
       <c r="H16" t="n">
-        <v>7.363462861315142</v>
+        <v>7.363462861315143</v>
       </c>
       <c r="I16" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J16" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340268</v>
       </c>
       <c r="K16" t="n">
         <v>96.22193800368858</v>
       </c>
       <c r="L16" t="n">
-        <v>123.1309525909486</v>
+        <v>123.1309525909487</v>
       </c>
       <c r="M16" t="n">
         <v>129.8243252736778</v>
@@ -32183,13 +32183,13 @@
         <v>37.2389440818657</v>
       </c>
       <c r="S16" t="n">
-        <v>14.43329070055328</v>
+        <v>14.43329070055329</v>
       </c>
       <c r="T16" t="n">
         <v>3.538678471184165</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.04517461878107452</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.846332827903209</v>
+        <v>1.84633282790321</v>
       </c>
       <c r="H17" t="n">
         <v>18.90875607376375</v>
       </c>
       <c r="I17" t="n">
-        <v>71.18074634773855</v>
+        <v>71.18074634773856</v>
       </c>
       <c r="J17" t="n">
         <v>156.7051908522502</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993455</v>
       </c>
       <c r="H18" t="n">
         <v>9.540794251433153</v>
@@ -32314,7 +32314,7 @@
         <v>34.01236824420992</v>
       </c>
       <c r="J18" t="n">
-        <v>93.33253813357018</v>
+        <v>93.3325381335702</v>
       </c>
       <c r="K18" t="n">
         <v>159.5201734582263</v>
@@ -32344,7 +32344,7 @@
         <v>18.34934770881897</v>
       </c>
       <c r="T18" t="n">
-        <v>3.981830116742535</v>
+        <v>3.981830116742536</v>
       </c>
       <c r="U18" t="n">
         <v>0.06499178645390433</v>
@@ -32384,22 +32384,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196985</v>
       </c>
       <c r="H19" t="n">
-        <v>7.363462861315142</v>
+        <v>7.363462861315143</v>
       </c>
       <c r="I19" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J19" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340268</v>
       </c>
       <c r="K19" t="n">
         <v>96.22193800368858</v>
       </c>
       <c r="L19" t="n">
-        <v>123.1309525909486</v>
+        <v>123.1309525909487</v>
       </c>
       <c r="M19" t="n">
         <v>129.8243252736778</v>
@@ -32420,13 +32420,13 @@
         <v>37.2389440818657</v>
       </c>
       <c r="S19" t="n">
-        <v>14.43329070055328</v>
+        <v>14.43329070055329</v>
       </c>
       <c r="T19" t="n">
         <v>3.538678471184165</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.04517461878107452</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.846332827903209</v>
+        <v>1.84633282790321</v>
       </c>
       <c r="H20" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I20" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773856</v>
       </c>
       <c r="J20" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K20" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L20" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M20" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N20" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O20" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P20" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q20" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R20" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S20" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T20" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U20" t="n">
         <v>0.1477066262322567</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993455</v>
       </c>
       <c r="H21" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I21" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J21" t="n">
-        <v>93.33253813357015</v>
+        <v>93.3325381335702</v>
       </c>
       <c r="K21" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L21" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M21" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N21" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O21" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P21" t="n">
         <v>188.640826575339</v>
@@ -32575,16 +32575,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R21" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S21" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T21" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742536</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,28 +32621,28 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196985</v>
       </c>
       <c r="H22" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315143</v>
       </c>
       <c r="I22" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J22" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340268</v>
       </c>
       <c r="K22" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L22" t="n">
-        <v>123.1309525909486</v>
+        <v>123.1309525909487</v>
       </c>
       <c r="M22" t="n">
         <v>129.8243252736778</v>
       </c>
       <c r="N22" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O22" t="n">
         <v>117.0624954680243</v>
@@ -32651,19 +32651,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R22" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S22" t="n">
-        <v>14.43329070055328</v>
+        <v>14.43329070055329</v>
       </c>
       <c r="T22" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107452</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.846332827903209</v>
+        <v>1.84633282790321</v>
       </c>
       <c r="H23" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I23" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773856</v>
       </c>
       <c r="J23" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K23" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L23" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M23" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N23" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O23" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P23" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q23" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R23" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S23" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T23" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U23" t="n">
         <v>0.1477066262322567</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993455</v>
       </c>
       <c r="H24" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I24" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J24" t="n">
-        <v>93.33253813357015</v>
+        <v>93.3325381335702</v>
       </c>
       <c r="K24" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L24" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M24" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N24" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O24" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P24" t="n">
         <v>188.640826575339</v>
@@ -32812,16 +32812,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R24" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S24" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T24" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742536</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,28 +32858,28 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196985</v>
       </c>
       <c r="H25" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315143</v>
       </c>
       <c r="I25" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J25" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340268</v>
       </c>
       <c r="K25" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L25" t="n">
-        <v>123.1309525909486</v>
+        <v>123.1309525909487</v>
       </c>
       <c r="M25" t="n">
         <v>129.8243252736778</v>
       </c>
       <c r="N25" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O25" t="n">
         <v>117.0624954680243</v>
@@ -32888,19 +32888,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R25" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S25" t="n">
-        <v>14.43329070055328</v>
+        <v>14.43329070055329</v>
       </c>
       <c r="T25" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107452</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.846332827903209</v>
+        <v>1.84633282790321</v>
       </c>
       <c r="H26" t="n">
         <v>18.90875607376375</v>
       </c>
       <c r="I26" t="n">
-        <v>71.18074634773855</v>
+        <v>71.18074634773856</v>
       </c>
       <c r="J26" t="n">
         <v>156.7051908522502</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993455</v>
       </c>
       <c r="H27" t="n">
         <v>9.540794251433153</v>
@@ -33025,7 +33025,7 @@
         <v>34.01236824420992</v>
       </c>
       <c r="J27" t="n">
-        <v>93.33253813357018</v>
+        <v>93.3325381335702</v>
       </c>
       <c r="K27" t="n">
         <v>159.5201734582263</v>
@@ -33055,7 +33055,7 @@
         <v>18.34934770881897</v>
       </c>
       <c r="T27" t="n">
-        <v>3.981830116742535</v>
+        <v>3.981830116742536</v>
       </c>
       <c r="U27" t="n">
         <v>0.06499178645390433</v>
@@ -33095,22 +33095,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196985</v>
       </c>
       <c r="H28" t="n">
-        <v>7.363462861315142</v>
+        <v>7.363462861315143</v>
       </c>
       <c r="I28" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J28" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340268</v>
       </c>
       <c r="K28" t="n">
         <v>96.22193800368858</v>
       </c>
       <c r="L28" t="n">
-        <v>123.1309525909486</v>
+        <v>123.1309525909487</v>
       </c>
       <c r="M28" t="n">
         <v>129.8243252736778</v>
@@ -33131,13 +33131,13 @@
         <v>37.2389440818657</v>
       </c>
       <c r="S28" t="n">
-        <v>14.43329070055328</v>
+        <v>14.43329070055329</v>
       </c>
       <c r="T28" t="n">
         <v>3.538678471184165</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.04517461878107452</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.846332827903209</v>
+        <v>1.84633282790321</v>
       </c>
       <c r="H29" t="n">
         <v>18.90875607376375</v>
       </c>
       <c r="I29" t="n">
-        <v>71.18074634773855</v>
+        <v>71.18074634773856</v>
       </c>
       <c r="J29" t="n">
         <v>156.7051908522502</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993455</v>
       </c>
       <c r="H30" t="n">
         <v>9.540794251433153</v>
@@ -33262,7 +33262,7 @@
         <v>34.01236824420992</v>
       </c>
       <c r="J30" t="n">
-        <v>93.33253813357018</v>
+        <v>93.3325381335702</v>
       </c>
       <c r="K30" t="n">
         <v>159.5201734582263</v>
@@ -33292,7 +33292,7 @@
         <v>18.34934770881897</v>
       </c>
       <c r="T30" t="n">
-        <v>3.981830116742535</v>
+        <v>3.981830116742536</v>
       </c>
       <c r="U30" t="n">
         <v>0.06499178645390433</v>
@@ -33332,22 +33332,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196985</v>
       </c>
       <c r="H31" t="n">
-        <v>7.363462861315142</v>
+        <v>7.363462861315143</v>
       </c>
       <c r="I31" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J31" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340268</v>
       </c>
       <c r="K31" t="n">
         <v>96.22193800368858</v>
       </c>
       <c r="L31" t="n">
-        <v>123.1309525909486</v>
+        <v>123.1309525909487</v>
       </c>
       <c r="M31" t="n">
         <v>129.8243252736778</v>
@@ -33368,13 +33368,13 @@
         <v>37.2389440818657</v>
       </c>
       <c r="S31" t="n">
-        <v>14.43329070055328</v>
+        <v>14.43329070055329</v>
       </c>
       <c r="T31" t="n">
         <v>3.538678471184165</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.04517461878107452</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.846332827903209</v>
+        <v>1.84633282790321</v>
       </c>
       <c r="H32" t="n">
         <v>18.90875607376375</v>
       </c>
       <c r="I32" t="n">
-        <v>71.18074634773855</v>
+        <v>71.18074634773856</v>
       </c>
       <c r="J32" t="n">
         <v>156.7051908522502</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993455</v>
       </c>
       <c r="H33" t="n">
         <v>9.540794251433153</v>
@@ -33499,7 +33499,7 @@
         <v>34.01236824420992</v>
       </c>
       <c r="J33" t="n">
-        <v>93.33253813357018</v>
+        <v>93.3325381335702</v>
       </c>
       <c r="K33" t="n">
         <v>159.5201734582263</v>
@@ -33529,7 +33529,7 @@
         <v>18.34934770881897</v>
       </c>
       <c r="T33" t="n">
-        <v>3.981830116742535</v>
+        <v>3.981830116742536</v>
       </c>
       <c r="U33" t="n">
         <v>0.06499178645390433</v>
@@ -33569,22 +33569,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196985</v>
       </c>
       <c r="H34" t="n">
-        <v>7.363462861315142</v>
+        <v>7.363462861315143</v>
       </c>
       <c r="I34" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J34" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340268</v>
       </c>
       <c r="K34" t="n">
         <v>96.22193800368858</v>
       </c>
       <c r="L34" t="n">
-        <v>123.1309525909486</v>
+        <v>123.1309525909487</v>
       </c>
       <c r="M34" t="n">
         <v>129.8243252736778</v>
@@ -33605,13 +33605,13 @@
         <v>37.2389440818657</v>
       </c>
       <c r="S34" t="n">
-        <v>14.43329070055328</v>
+        <v>14.43329070055329</v>
       </c>
       <c r="T34" t="n">
         <v>3.538678471184165</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.04517461878107452</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.846332827903209</v>
+        <v>1.84633282790321</v>
       </c>
       <c r="H35" t="n">
         <v>18.90875607376375</v>
       </c>
       <c r="I35" t="n">
-        <v>71.18074634773855</v>
+        <v>71.18074634773856</v>
       </c>
       <c r="J35" t="n">
         <v>156.7051908522502</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993455</v>
       </c>
       <c r="H36" t="n">
         <v>9.540794251433153</v>
@@ -33736,7 +33736,7 @@
         <v>34.01236824420992</v>
       </c>
       <c r="J36" t="n">
-        <v>93.33253813357018</v>
+        <v>93.3325381335702</v>
       </c>
       <c r="K36" t="n">
         <v>159.5201734582263</v>
@@ -33766,7 +33766,7 @@
         <v>18.34934770881897</v>
       </c>
       <c r="T36" t="n">
-        <v>3.981830116742535</v>
+        <v>3.981830116742536</v>
       </c>
       <c r="U36" t="n">
         <v>0.06499178645390433</v>
@@ -33806,22 +33806,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196985</v>
       </c>
       <c r="H37" t="n">
-        <v>7.363462861315142</v>
+        <v>7.363462861315143</v>
       </c>
       <c r="I37" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J37" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340268</v>
       </c>
       <c r="K37" t="n">
         <v>96.22193800368858</v>
       </c>
       <c r="L37" t="n">
-        <v>123.1309525909486</v>
+        <v>123.1309525909487</v>
       </c>
       <c r="M37" t="n">
         <v>129.8243252736778</v>
@@ -33842,13 +33842,13 @@
         <v>37.2389440818657</v>
       </c>
       <c r="S37" t="n">
-        <v>14.43329070055328</v>
+        <v>14.43329070055329</v>
       </c>
       <c r="T37" t="n">
         <v>3.538678471184165</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.04517461878107452</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.846332827903209</v>
+        <v>1.84633282790321</v>
       </c>
       <c r="H38" t="n">
         <v>18.90875607376375</v>
       </c>
       <c r="I38" t="n">
-        <v>71.18074634773855</v>
+        <v>71.18074634773856</v>
       </c>
       <c r="J38" t="n">
         <v>156.7051908522502</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993455</v>
       </c>
       <c r="H39" t="n">
         <v>9.540794251433153</v>
@@ -33973,7 +33973,7 @@
         <v>34.01236824420992</v>
       </c>
       <c r="J39" t="n">
-        <v>93.33253813357018</v>
+        <v>93.3325381335702</v>
       </c>
       <c r="K39" t="n">
         <v>159.5201734582263</v>
@@ -34003,7 +34003,7 @@
         <v>18.34934770881897</v>
       </c>
       <c r="T39" t="n">
-        <v>3.981830116742535</v>
+        <v>3.981830116742536</v>
       </c>
       <c r="U39" t="n">
         <v>0.06499178645390433</v>
@@ -34043,22 +34043,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196985</v>
       </c>
       <c r="H40" t="n">
-        <v>7.363462861315142</v>
+        <v>7.363462861315143</v>
       </c>
       <c r="I40" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J40" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340268</v>
       </c>
       <c r="K40" t="n">
         <v>96.22193800368858</v>
       </c>
       <c r="L40" t="n">
-        <v>123.1309525909486</v>
+        <v>123.1309525909487</v>
       </c>
       <c r="M40" t="n">
         <v>129.8243252736778</v>
@@ -34079,13 +34079,13 @@
         <v>37.2389440818657</v>
       </c>
       <c r="S40" t="n">
-        <v>14.43329070055328</v>
+        <v>14.43329070055329</v>
       </c>
       <c r="T40" t="n">
         <v>3.538678471184165</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.04517461878107452</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.846332827903209</v>
+        <v>1.84633282790321</v>
       </c>
       <c r="H41" t="n">
         <v>18.90875607376375</v>
       </c>
       <c r="I41" t="n">
-        <v>71.18074634773855</v>
+        <v>71.18074634773856</v>
       </c>
       <c r="J41" t="n">
         <v>156.7051908522502</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993455</v>
       </c>
       <c r="H42" t="n">
         <v>9.540794251433153</v>
@@ -34210,7 +34210,7 @@
         <v>34.01236824420992</v>
       </c>
       <c r="J42" t="n">
-        <v>93.33253813357018</v>
+        <v>93.3325381335702</v>
       </c>
       <c r="K42" t="n">
         <v>159.5201734582263</v>
@@ -34240,7 +34240,7 @@
         <v>18.34934770881897</v>
       </c>
       <c r="T42" t="n">
-        <v>3.981830116742535</v>
+        <v>3.981830116742536</v>
       </c>
       <c r="U42" t="n">
         <v>0.06499178645390433</v>
@@ -34280,22 +34280,22 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196985</v>
       </c>
       <c r="H43" t="n">
-        <v>7.363462861315142</v>
+        <v>7.363462861315143</v>
       </c>
       <c r="I43" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J43" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340268</v>
       </c>
       <c r="K43" t="n">
         <v>96.22193800368858</v>
       </c>
       <c r="L43" t="n">
-        <v>123.1309525909486</v>
+        <v>123.1309525909487</v>
       </c>
       <c r="M43" t="n">
         <v>129.8243252736778</v>
@@ -34316,13 +34316,13 @@
         <v>37.2389440818657</v>
       </c>
       <c r="S43" t="n">
-        <v>14.43329070055328</v>
+        <v>14.43329070055329</v>
       </c>
       <c r="T43" t="n">
         <v>3.538678471184165</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.04517461878107452</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.846332827903209</v>
+        <v>1.84633282790321</v>
       </c>
       <c r="H44" t="n">
         <v>18.90875607376375</v>
       </c>
       <c r="I44" t="n">
-        <v>71.18074634773855</v>
+        <v>71.18074634773856</v>
       </c>
       <c r="J44" t="n">
         <v>156.7051908522502</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993455</v>
       </c>
       <c r="H45" t="n">
         <v>9.540794251433153</v>
@@ -34447,7 +34447,7 @@
         <v>34.01236824420992</v>
       </c>
       <c r="J45" t="n">
-        <v>93.33253813357018</v>
+        <v>93.3325381335702</v>
       </c>
       <c r="K45" t="n">
         <v>159.5201734582263</v>
@@ -34477,7 +34477,7 @@
         <v>18.34934770881897</v>
       </c>
       <c r="T45" t="n">
-        <v>3.981830116742535</v>
+        <v>3.981830116742536</v>
       </c>
       <c r="U45" t="n">
         <v>0.06499178645390433</v>
@@ -34517,22 +34517,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196985</v>
       </c>
       <c r="H46" t="n">
-        <v>7.363462861315142</v>
+        <v>7.363462861315143</v>
       </c>
       <c r="I46" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J46" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340268</v>
       </c>
       <c r="K46" t="n">
         <v>96.22193800368858</v>
       </c>
       <c r="L46" t="n">
-        <v>123.1309525909486</v>
+        <v>123.1309525909487</v>
       </c>
       <c r="M46" t="n">
         <v>129.8243252736778</v>
@@ -34553,13 +34553,13 @@
         <v>37.2389440818657</v>
       </c>
       <c r="S46" t="n">
-        <v>14.43329070055328</v>
+        <v>14.43329070055329</v>
       </c>
       <c r="T46" t="n">
         <v>3.538678471184165</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.04517461878107452</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35421,7 +35421,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N11" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O11" t="n">
         <v>277.1250097811783</v>
@@ -35430,7 +35430,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L12" t="n">
-        <v>273.1111511244429</v>
+        <v>90.0864351299626</v>
       </c>
       <c r="M12" t="n">
         <v>378.678393487941</v>
@@ -35503,13 +35503,13 @@
         <v>407.3068328282941</v>
       </c>
       <c r="O12" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P12" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q12" t="n">
-        <v>91.45371493151266</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L13" t="n">
-        <v>63.85525412676519</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M13" t="n">
-        <v>76.00912912692043</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N13" t="n">
-        <v>82.29890925793121</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O13" t="n">
-        <v>53.79651836186798</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P13" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.40379396119668</v>
+        <v>45.40379396119671</v>
       </c>
       <c r="K14" t="n">
-        <v>176.3970685286315</v>
+        <v>176.3970685286316</v>
       </c>
       <c r="L14" t="n">
         <v>274.3746085046434</v>
       </c>
       <c r="M14" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336425</v>
       </c>
       <c r="N14" t="n">
         <v>332.9626517459645</v>
@@ -35731,10 +35731,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>285.7627596518972</v>
+        <v>273.1111511244429</v>
       </c>
       <c r="M15" t="n">
-        <v>366.0267849604862</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N15" t="n">
         <v>407.3068328282941</v>
@@ -35746,7 +35746,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q15" t="n">
-        <v>91.45371493151266</v>
+        <v>91.45371493151268</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,19 +35810,19 @@
         <v>7.995723626970275</v>
       </c>
       <c r="L16" t="n">
-        <v>63.85525412676519</v>
+        <v>63.8552541267652</v>
       </c>
       <c r="M16" t="n">
         <v>76.00912912692043</v>
       </c>
       <c r="N16" t="n">
-        <v>82.29890925793121</v>
+        <v>82.29890925793124</v>
       </c>
       <c r="O16" t="n">
-        <v>53.79651836186798</v>
+        <v>53.796518361868</v>
       </c>
       <c r="P16" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144095</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>45.40379396119668</v>
+        <v>45.40379396119671</v>
       </c>
       <c r="K17" t="n">
-        <v>176.3970685286315</v>
+        <v>176.3970685286316</v>
       </c>
       <c r="L17" t="n">
         <v>274.3746085046434</v>
       </c>
       <c r="M17" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336425</v>
       </c>
       <c r="N17" t="n">
         <v>332.9626517459645</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>20.29762450082175</v>
+        <v>20.29762450082177</v>
       </c>
       <c r="K18" t="n">
         <v>162.7270914936593</v>
@@ -35974,16 +35974,16 @@
         <v>378.678393487941</v>
       </c>
       <c r="N18" t="n">
-        <v>407.3068328282941</v>
+        <v>211.6305083063592</v>
       </c>
       <c r="O18" t="n">
         <v>316.2959939867617</v>
       </c>
       <c r="P18" t="n">
-        <v>127.3333140181127</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>91.45371493151268</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36047,19 +36047,19 @@
         <v>7.995723626970275</v>
       </c>
       <c r="L19" t="n">
-        <v>63.85525412676519</v>
+        <v>63.8552541267652</v>
       </c>
       <c r="M19" t="n">
         <v>76.00912912692043</v>
       </c>
       <c r="N19" t="n">
-        <v>82.29890925793121</v>
+        <v>82.29890925793124</v>
       </c>
       <c r="O19" t="n">
-        <v>53.79651836186798</v>
+        <v>53.796518361868</v>
       </c>
       <c r="P19" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144095</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119693</v>
       </c>
       <c r="K20" t="n">
-        <v>176.3970685286315</v>
+        <v>176.3970685286316</v>
       </c>
       <c r="L20" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M20" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336425</v>
       </c>
       <c r="N20" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O20" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P20" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q20" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L21" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M21" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N21" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O21" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P21" t="n">
-        <v>231.5559236085354</v>
+        <v>147.6309385189352</v>
       </c>
       <c r="Q21" t="n">
-        <v>58.50448190323659</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L22" t="n">
-        <v>63.85525412676515</v>
+        <v>63.8552541267652</v>
       </c>
       <c r="M22" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N22" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793124</v>
       </c>
       <c r="O22" t="n">
-        <v>53.79651836186795</v>
+        <v>53.796518361868</v>
       </c>
       <c r="P22" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144095</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119671</v>
       </c>
       <c r="K23" t="n">
-        <v>176.3970685286315</v>
+        <v>176.3970685286316</v>
       </c>
       <c r="L23" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M23" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336425</v>
       </c>
       <c r="N23" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O23" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P23" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q23" t="n">
         <v>65.75034647002272</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405913</v>
       </c>
       <c r="L24" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M24" t="n">
-        <v>183.002068966006</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N24" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O24" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P24" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q24" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L25" t="n">
-        <v>63.85525412676515</v>
+        <v>63.8552541267652</v>
       </c>
       <c r="M25" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N25" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793124</v>
       </c>
       <c r="O25" t="n">
-        <v>53.79651836186795</v>
+        <v>53.796518361868</v>
       </c>
       <c r="P25" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144095</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>45.40379396119668</v>
+        <v>45.40379396119671</v>
       </c>
       <c r="K26" t="n">
-        <v>176.3970685286315</v>
+        <v>176.3970685286316</v>
       </c>
       <c r="L26" t="n">
         <v>274.3746085046434</v>
       </c>
       <c r="M26" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336425</v>
       </c>
       <c r="N26" t="n">
         <v>332.9626517459645</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>20.29762450082175</v>
+        <v>20.29762450082177</v>
       </c>
       <c r="K27" t="n">
-        <v>162.7270914936593</v>
+        <v>58.50448190323736</v>
       </c>
       <c r="L27" t="n">
         <v>285.7627596518972</v>
@@ -36685,7 +36685,7 @@
         <v>378.678393487941</v>
       </c>
       <c r="N27" t="n">
-        <v>303.0842232378712</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O27" t="n">
         <v>316.2959939867617</v>
@@ -36758,19 +36758,19 @@
         <v>7.995723626970275</v>
       </c>
       <c r="L28" t="n">
-        <v>63.85525412676519</v>
+        <v>63.8552541267652</v>
       </c>
       <c r="M28" t="n">
         <v>76.00912912692043</v>
       </c>
       <c r="N28" t="n">
-        <v>82.29890925793121</v>
+        <v>82.29890925793124</v>
       </c>
       <c r="O28" t="n">
-        <v>53.79651836186798</v>
+        <v>53.796518361868</v>
       </c>
       <c r="P28" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144095</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>45.40379396119668</v>
+        <v>45.40379396119671</v>
       </c>
       <c r="K29" t="n">
-        <v>176.3970685286315</v>
+        <v>176.3970685286316</v>
       </c>
       <c r="L29" t="n">
         <v>274.3746085046434</v>
       </c>
       <c r="M29" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336425</v>
       </c>
       <c r="N29" t="n">
         <v>332.9626517459645</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405913</v>
       </c>
       <c r="L30" t="n">
         <v>285.7627596518972</v>
@@ -36925,13 +36925,13 @@
         <v>407.3068328282941</v>
       </c>
       <c r="O30" t="n">
-        <v>140.9172939656476</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P30" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q30" t="n">
-        <v>91.45371493151266</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36995,19 +36995,19 @@
         <v>7.995723626970275</v>
       </c>
       <c r="L31" t="n">
-        <v>63.85525412676519</v>
+        <v>63.8552541267652</v>
       </c>
       <c r="M31" t="n">
         <v>76.00912912692043</v>
       </c>
       <c r="N31" t="n">
-        <v>82.29890925793121</v>
+        <v>82.29890925793124</v>
       </c>
       <c r="O31" t="n">
-        <v>53.79651836186798</v>
+        <v>53.796518361868</v>
       </c>
       <c r="P31" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144095</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>45.40379396119668</v>
+        <v>45.40379396119671</v>
       </c>
       <c r="K32" t="n">
-        <v>176.3970685286315</v>
+        <v>176.3970685286316</v>
       </c>
       <c r="L32" t="n">
         <v>274.3746085046434</v>
       </c>
       <c r="M32" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336425</v>
       </c>
       <c r="N32" t="n">
         <v>332.9626517459645</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>20.29762450082175</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>78.80210640405913</v>
       </c>
       <c r="L33" t="n">
         <v>285.7627596518972</v>
@@ -37168,7 +37168,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q33" t="n">
-        <v>58.50448190323704</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37232,19 +37232,19 @@
         <v>7.995723626970275</v>
       </c>
       <c r="L34" t="n">
-        <v>63.85525412676519</v>
+        <v>63.8552541267652</v>
       </c>
       <c r="M34" t="n">
         <v>76.00912912692043</v>
       </c>
       <c r="N34" t="n">
-        <v>82.29890925793121</v>
+        <v>82.29890925793124</v>
       </c>
       <c r="O34" t="n">
-        <v>53.79651836186798</v>
+        <v>53.796518361868</v>
       </c>
       <c r="P34" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144095</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>45.40379396119668</v>
+        <v>45.40379396119671</v>
       </c>
       <c r="K35" t="n">
-        <v>176.3970685286315</v>
+        <v>176.3970685286316</v>
       </c>
       <c r="L35" t="n">
         <v>274.3746085046434</v>
       </c>
       <c r="M35" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336425</v>
       </c>
       <c r="N35" t="n">
         <v>332.9626517459645</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>20.29762450082175</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>162.7270914936593</v>
@@ -37396,13 +37396,13 @@
         <v>378.678393487941</v>
       </c>
       <c r="N36" t="n">
-        <v>303.0842232378712</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O36" t="n">
         <v>316.2959939867617</v>
       </c>
       <c r="P36" t="n">
-        <v>231.5559236085354</v>
+        <v>147.6309385189357</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37469,19 +37469,19 @@
         <v>7.995723626970275</v>
       </c>
       <c r="L37" t="n">
-        <v>63.85525412676519</v>
+        <v>63.8552541267652</v>
       </c>
       <c r="M37" t="n">
         <v>76.00912912692043</v>
       </c>
       <c r="N37" t="n">
-        <v>82.29890925793121</v>
+        <v>82.29890925793124</v>
       </c>
       <c r="O37" t="n">
-        <v>53.79651836186798</v>
+        <v>53.796518361868</v>
       </c>
       <c r="P37" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144095</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>45.40379396119668</v>
+        <v>45.40379396119671</v>
       </c>
       <c r="K38" t="n">
-        <v>176.3970685286315</v>
+        <v>176.3970685286316</v>
       </c>
       <c r="L38" t="n">
         <v>274.3746085046434</v>
       </c>
       <c r="M38" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336425</v>
       </c>
       <c r="N38" t="n">
         <v>332.9626517459645</v>
       </c>
       <c r="O38" t="n">
-        <v>277.125009781178</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P38" t="n">
         <v>191.9262766422085</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>20.29762450082175</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>162.7270914936593</v>
@@ -37633,16 +37633,16 @@
         <v>378.678393487941</v>
       </c>
       <c r="N39" t="n">
-        <v>407.3068328282941</v>
+        <v>231.9281328071808</v>
       </c>
       <c r="O39" t="n">
-        <v>212.073384396339</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P39" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>91.45371493151268</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37706,19 +37706,19 @@
         <v>7.995723626970275</v>
       </c>
       <c r="L40" t="n">
-        <v>63.85525412676519</v>
+        <v>63.8552541267652</v>
       </c>
       <c r="M40" t="n">
         <v>76.00912912692043</v>
       </c>
       <c r="N40" t="n">
-        <v>82.29890925793121</v>
+        <v>82.29890925793124</v>
       </c>
       <c r="O40" t="n">
-        <v>53.79651836186798</v>
+        <v>53.796518361868</v>
       </c>
       <c r="P40" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144095</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>45.40379396119645</v>
+        <v>45.40379396119671</v>
       </c>
       <c r="K41" t="n">
-        <v>176.3970685286315</v>
+        <v>176.3970685286316</v>
       </c>
       <c r="L41" t="n">
         <v>274.3746085046434</v>
       </c>
       <c r="M41" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336425</v>
       </c>
       <c r="N41" t="n">
         <v>332.9626517459645</v>
@@ -37797,7 +37797,7 @@
         <v>277.1250097811783</v>
       </c>
       <c r="P41" t="n">
-        <v>191.9262766422085</v>
+        <v>191.9262766422086</v>
       </c>
       <c r="Q41" t="n">
         <v>65.75034647002272</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>20.29762450082177</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L42" t="n">
         <v>285.7627596518972</v>
@@ -37876,10 +37876,10 @@
         <v>316.2959939867617</v>
       </c>
       <c r="P42" t="n">
-        <v>231.5559236085354</v>
+        <v>127.3333140181134</v>
       </c>
       <c r="Q42" t="n">
-        <v>78.80210640405838</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37943,19 +37943,19 @@
         <v>7.995723626970275</v>
       </c>
       <c r="L43" t="n">
-        <v>63.85525412676519</v>
+        <v>63.8552541267652</v>
       </c>
       <c r="M43" t="n">
         <v>76.00912912692043</v>
       </c>
       <c r="N43" t="n">
-        <v>82.29890925793121</v>
+        <v>82.29890925793124</v>
       </c>
       <c r="O43" t="n">
-        <v>53.79651836186798</v>
+        <v>53.796518361868</v>
       </c>
       <c r="P43" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144095</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>45.40379396119645</v>
+        <v>45.40379396119671</v>
       </c>
       <c r="K44" t="n">
-        <v>176.3970685286315</v>
+        <v>176.3970685286316</v>
       </c>
       <c r="L44" t="n">
         <v>274.3746085046434</v>
       </c>
       <c r="M44" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336425</v>
       </c>
       <c r="N44" t="n">
         <v>332.9626517459645</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>20.29762450082175</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>162.7270914936593</v>
@@ -38107,7 +38107,7 @@
         <v>378.678393487941</v>
       </c>
       <c r="N45" t="n">
-        <v>211.6305083063587</v>
+        <v>231.9281328071808</v>
       </c>
       <c r="O45" t="n">
         <v>316.2959939867617</v>
@@ -38116,7 +38116,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q45" t="n">
-        <v>91.45371493151266</v>
+        <v>91.45371493151268</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38180,19 +38180,19 @@
         <v>7.995723626970275</v>
       </c>
       <c r="L46" t="n">
-        <v>63.85525412676519</v>
+        <v>63.8552541267652</v>
       </c>
       <c r="M46" t="n">
         <v>76.00912912692043</v>
       </c>
       <c r="N46" t="n">
-        <v>82.29890925793121</v>
+        <v>82.29890925793124</v>
       </c>
       <c r="O46" t="n">
-        <v>53.79651836186798</v>
+        <v>53.796518361868</v>
       </c>
       <c r="P46" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144095</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
